--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/11/flowCurve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/11/flowCurve.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>408.8475217641616</v>
+        <v>659.8247968929436</v>
       </c>
       <c r="C2" t="n">
-        <v>408847521.7641616</v>
+        <v>659824796.8929436</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0.002</v>
       </c>
       <c r="B3" t="n">
-        <v>596.3504735575865</v>
+        <v>808.0067510181512</v>
       </c>
       <c r="C3" t="n">
-        <v>596350473.5575866</v>
+        <v>808006751.0181513</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.004</v>
       </c>
       <c r="B4" t="n">
-        <v>674.3219888094609</v>
+        <v>868.7187079264178</v>
       </c>
       <c r="C4" t="n">
-        <v>674321988.8094609</v>
+        <v>868718707.9264178</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.006</v>
       </c>
       <c r="B5" t="n">
-        <v>727.2442740381144</v>
+        <v>908.8562300910645</v>
       </c>
       <c r="C5" t="n">
-        <v>727244274.0381144</v>
+        <v>908856230.0910645</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.008</v>
       </c>
       <c r="B6" t="n">
-        <v>768.1392891156797</v>
+        <v>939.2557276719233</v>
       </c>
       <c r="C6" t="n">
-        <v>768139289.1156797</v>
+        <v>939255727.6719233</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.01</v>
       </c>
       <c r="B7" t="n">
-        <v>801.8196823078625</v>
+        <v>963.8939409239051</v>
       </c>
       <c r="C7" t="n">
-        <v>801819682.3078625</v>
+        <v>963893940.9239051</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.012</v>
       </c>
       <c r="B8" t="n">
-        <v>830.6394232189434</v>
+        <v>984.6974530135655</v>
       </c>
       <c r="C8" t="n">
-        <v>830639423.2189435</v>
+        <v>984697453.0135654</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.014</v>
       </c>
       <c r="B9" t="n">
-        <v>855.9387325421144</v>
+        <v>1002.753001380083</v>
       </c>
       <c r="C9" t="n">
-        <v>855938732.5421144</v>
+        <v>1002753001.380083</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.016</v>
       </c>
       <c r="B10" t="n">
-        <v>878.5584838081505</v>
+        <v>1018.736579820976</v>
       </c>
       <c r="C10" t="n">
-        <v>878558483.8081505</v>
+        <v>1018736579.820976</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.018</v>
       </c>
       <c r="B11" t="n">
-        <v>899.0633478281832</v>
+        <v>1033.098571852922</v>
       </c>
       <c r="C11" t="n">
-        <v>899063347.8281832</v>
+        <v>1033098571.852922</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.02</v>
       </c>
       <c r="B12" t="n">
-        <v>917.8521111979439</v>
+        <v>1046.154758152009</v>
       </c>
       <c r="C12" t="n">
-        <v>917852111.1979439</v>
+        <v>1046154758.152009</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.022</v>
       </c>
       <c r="B13" t="n">
-        <v>935.217586019447</v>
+        <v>1058.135463236879</v>
       </c>
       <c r="C13" t="n">
-        <v>935217586.019447</v>
+        <v>1058135463.236879</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.024</v>
       </c>
       <c r="B14" t="n">
-        <v>951.3815427075314</v>
+        <v>1069.214058433745</v>
       </c>
       <c r="C14" t="n">
-        <v>951381542.7075313</v>
+        <v>1069214058.433745</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.026</v>
       </c>
       <c r="B15" t="n">
-        <v>966.5162500898606</v>
+        <v>1079.524447138172</v>
       </c>
       <c r="C15" t="n">
-        <v>966516250.0898606</v>
+        <v>1079524447.138172</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.028</v>
       </c>
       <c r="B16" t="n">
-        <v>980.7583712562903</v>
+        <v>1089.172289854621</v>
       </c>
       <c r="C16" t="n">
-        <v>980758371.2562903</v>
+        <v>1089172289.854621</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.03</v>
       </c>
       <c r="B17" t="n">
-        <v>994.2182689114306</v>
+        <v>1098.242486246477</v>
       </c>
       <c r="C17" t="n">
-        <v>994218268.9114306</v>
+        <v>1098242486.246477</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.032</v>
       </c>
       <c r="B18" t="n">
-        <v>1006.986435345006</v>
+        <v>1106.804322466698</v>
       </c>
       <c r="C18" t="n">
-        <v>1006986435.345006</v>
+        <v>1106804322.466698</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.034</v>
       </c>
       <c r="B19" t="n">
-        <v>1019.138056057691</v>
+        <v>1114.915109149472</v>
       </c>
       <c r="C19" t="n">
-        <v>1019138056.057691</v>
+        <v>1114915109.149472</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.036</v>
       </c>
       <c r="B20" t="n">
-        <v>1030.736324493969</v>
+        <v>1122.622813283435</v>
       </c>
       <c r="C20" t="n">
-        <v>1030736324.493969</v>
+        <v>1122622813.283435</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.038</v>
       </c>
       <c r="B21" t="n">
-        <v>1041.834898697909</v>
+        <v>1129.968001355678</v>
       </c>
       <c r="C21" t="n">
-        <v>1041834898.697909</v>
+        <v>1129968001.355678</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.04</v>
       </c>
       <c r="B22" t="n">
-        <v>1052.479754628644</v>
+        <v>1136.98529993917</v>
       </c>
       <c r="C22" t="n">
-        <v>1052479754.628644</v>
+        <v>1136985299.93917</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.042</v>
       </c>
       <c r="B23" t="n">
-        <v>1062.710606507599</v>
+        <v>1143.704511162689</v>
       </c>
       <c r="C23" t="n">
-        <v>1062710606.507599</v>
+        <v>1143704511.162689</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.044</v>
       </c>
       <c r="B24" t="n">
-        <v>1072.562010771945</v>
+        <v>1150.151476806237</v>
       </c>
       <c r="C24" t="n">
-        <v>1072562010.771945</v>
+        <v>1150151476.806237</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.046</v>
       </c>
       <c r="B25" t="n">
-        <v>1082.064235035716</v>
+        <v>1156.348756280742</v>
       </c>
       <c r="C25" t="n">
-        <v>1082064235.035716</v>
+        <v>1156348756.280741</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.048</v>
       </c>
       <c r="B26" t="n">
-        <v>1091.243949945015</v>
+        <v>1162.316164762243</v>
       </c>
       <c r="C26" t="n">
-        <v>1091243949.945015</v>
+        <v>1162316164.762243</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.05</v>
       </c>
       <c r="B27" t="n">
-        <v>1100.124785774295</v>
+        <v>1168.071204834704</v>
       </c>
       <c r="C27" t="n">
-        <v>1100124785.774295</v>
+        <v>1168071204.834704</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.052</v>
       </c>
       <c r="B28" t="n">
-        <v>1108.727784470347</v>
+        <v>1173.629416048712</v>
       </c>
       <c r="C28" t="n">
-        <v>1108727784.470347</v>
+        <v>1173629416.048712</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.054</v>
       </c>
       <c r="B29" t="n">
-        <v>1117.071769984358</v>
+        <v>1179.004660502419</v>
       </c>
       <c r="C29" t="n">
-        <v>1117071769.984358</v>
+        <v>1179004660.502419</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.056</v>
       </c>
       <c r="B30" t="n">
-        <v>1125.173654094086</v>
+        <v>1184.209358046142</v>
       </c>
       <c r="C30" t="n">
-        <v>1125173654.094086</v>
+        <v>1184209358.046142</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.058</v>
       </c>
       <c r="B31" t="n">
-        <v>1133.048690820602</v>
+        <v>1189.254681446201</v>
       </c>
       <c r="C31" t="n">
-        <v>1133048690.820602</v>
+        <v>1189254681.446201</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.06</v>
       </c>
       <c r="B32" t="n">
-        <v>1140.710689528371</v>
+        <v>1194.150719445736</v>
       </c>
       <c r="C32" t="n">
-        <v>1140710689.528371</v>
+        <v>1194150719.445736</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.062</v>
       </c>
       <c r="B33" t="n">
-        <v>1148.172194551743</v>
+        <v>1198.906613878828</v>
       </c>
       <c r="C33" t="n">
-        <v>1148172194.551743</v>
+        <v>1198906613.878828</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.064</v>
       </c>
       <c r="B34" t="n">
-        <v>1155.444637500588</v>
+        <v>1203.530675656337</v>
       </c>
       <c r="C34" t="n">
-        <v>1155444637.500587</v>
+        <v>1203530675.656337</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0.066</v>
       </c>
       <c r="B35" t="n">
-        <v>1162.538467112469</v>
+        <v>1208.030483426811</v>
       </c>
       <c r="C35" t="n">
-        <v>1162538467.112469</v>
+        <v>1208030483.426811</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0.068</v>
       </c>
       <c r="B36" t="n">
-        <v>1169.463260532315</v>
+        <v>1212.412967938437</v>
       </c>
       <c r="C36" t="n">
-        <v>1169463260.532315</v>
+        <v>1212412967.938437</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>1176.227819136771</v>
+        <v>1216.684484527367</v>
       </c>
       <c r="C37" t="n">
-        <v>1176227819.136771</v>
+        <v>1216684484.527367</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1182.840251424231</v>
+        <v>1220.850875689864</v>
       </c>
       <c r="C38" t="n">
-        <v>1182840251.424231</v>
+        <v>1220850875.689864</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>0.074</v>
       </c>
       <c r="B39" t="n">
-        <v>1189.308045022596</v>
+        <v>1224.91752532837</v>
       </c>
       <c r="C39" t="n">
-        <v>1189308045.022596</v>
+        <v>1224917525.32837</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>0.076</v>
       </c>
       <c r="B40" t="n">
-        <v>1195.638129495254</v>
+        <v>1228.889405971178</v>
       </c>
       <c r="C40" t="n">
-        <v>1195638129.495254</v>
+        <v>1228889405.971178</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0.078</v>
       </c>
       <c r="B41" t="n">
-        <v>1201.83693132937</v>
+        <v>1232.771120034085</v>
       </c>
       <c r="C41" t="n">
-        <v>1201836931.32937</v>
+        <v>1232771120.034086</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0.08</v>
       </c>
       <c r="B42" t="n">
-        <v>1207.910422252681</v>
+        <v>1236.566936007133</v>
       </c>
       <c r="C42" t="n">
-        <v>1207910422.252681</v>
+        <v>1236566936.007133</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>0.082</v>
       </c>
       <c r="B43" t="n">
-        <v>1213.864161832785</v>
+        <v>1240.280820300108</v>
       </c>
       <c r="C43" t="n">
-        <v>1213864161.832785</v>
+        <v>1240280820.300107</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1219.703335156833</v>
+        <v>1243.916465359357</v>
       </c>
       <c r="C44" t="n">
-        <v>1219703335.156833</v>
+        <v>1243916465.359357</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1225.432786262034</v>
+        <v>1247.4773145697</v>
       </c>
       <c r="C45" t="n">
-        <v>1225432786.262034</v>
+        <v>1247477314.5697</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1231.057047882729</v>
+        <v>1250.966584374253</v>
       </c>
       <c r="C46" t="n">
-        <v>1231057047.882729</v>
+        <v>1250966584.374253</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>0.09</v>
       </c>
       <c r="B47" t="n">
-        <v>1236.580367993449</v>
+        <v>1254.387283978351</v>
       </c>
       <c r="C47" t="n">
-        <v>1236580367.993449</v>
+        <v>1254387283.978351</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0.092</v>
       </c>
       <c r="B48" t="n">
-        <v>1242.00673355583</v>
+        <v>1257.742232948571</v>
       </c>
       <c r="C48" t="n">
-        <v>1242006733.55583</v>
+        <v>1257742232.948571</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0.094</v>
       </c>
       <c r="B49" t="n">
-        <v>1247.339891817669</v>
+        <v>1261.03407697201</v>
       </c>
       <c r="C49" t="n">
-        <v>1247339891.817669</v>
+        <v>1261034076.97201</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0.096</v>
       </c>
       <c r="B50" t="n">
-        <v>1252.583369462624</v>
+        <v>1264.265302002722</v>
       </c>
       <c r="C50" t="n">
-        <v>1252583369.462624</v>
+        <v>1264265302.002722</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>0.098</v>
       </c>
       <c r="B51" t="n">
-        <v>1257.740489867261</v>
+        <v>1267.438246990136</v>
       </c>
       <c r="C51" t="n">
-        <v>1257740489.867261</v>
+        <v>1267438246.990136</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>0.1</v>
       </c>
       <c r="B52" t="n">
-        <v>1262.814388686925</v>
+        <v>1270.555115357282</v>
       </c>
       <c r="C52" t="n">
-        <v>1262814388.686924</v>
+        <v>1270555115.357282</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>0.102</v>
       </c>
       <c r="B53" t="n">
-        <v>1267.808027962124</v>
+        <v>1273.617985373889</v>
       </c>
       <c r="C53" t="n">
-        <v>1267808027.962124</v>
+        <v>1273617985.373889</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0.104</v>
       </c>
       <c r="B54" t="n">
-        <v>1272.724208911852</v>
+        <v>1276.628819550092</v>
       </c>
       <c r="C54" t="n">
-        <v>1272724208.911852</v>
+        <v>1276628819.550092</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>0.106</v>
       </c>
       <c r="B55" t="n">
-        <v>1277.565583558717</v>
+        <v>1279.589473160054</v>
       </c>
       <c r="C55" t="n">
-        <v>1277565583.558717</v>
+        <v>1279589473.160053</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0.108</v>
       </c>
       <c r="B56" t="n">
-        <v>1282.334665312376</v>
+        <v>1282.501701990819</v>
       </c>
       <c r="C56" t="n">
-        <v>1282334665.312376</v>
+        <v>1282501701.990819</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0.11</v>
       </c>
       <c r="B57" t="n">
-        <v>1287.033838622008</v>
+        <v>1285.367169399708</v>
       </c>
       <c r="C57" t="n">
-        <v>1287033838.622009</v>
+        <v>1285367169.399708</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0.112</v>
       </c>
       <c r="B58" t="n">
-        <v>1291.665367794992</v>
+        <v>1288.187452753269</v>
       </c>
       <c r="C58" t="n">
-        <v>1291665367.794992</v>
+        <v>1288187452.753269</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0.114</v>
       </c>
       <c r="B59" t="n">
-        <v>1296.231405067273</v>
+        <v>1290.964049311933</v>
       </c>
       <c r="C59" t="n">
-        <v>1296231405.067273</v>
+        <v>1290964049.311934</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0.116</v>
       </c>
       <c r="B60" t="n">
-        <v>1300.733998000843</v>
+        <v>1293.698381616897</v>
       </c>
       <c r="C60" t="n">
-        <v>1300733998.000843</v>
+        <v>1293698381.616897</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0.118</v>
       </c>
       <c r="B61" t="n">
-        <v>1305.175096274941</v>
+        <v>1296.391802429079</v>
       </c>
       <c r="C61" t="n">
-        <v>1305175096.274941</v>
+        <v>1296391802.429079</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0.12</v>
       </c>
       <c r="B62" t="n">
-        <v>1309.556557930027</v>
+        <v>1299.045599264307</v>
       </c>
       <c r="C62" t="n">
-        <v>1309556557.930027</v>
+        <v>1299045599.264307</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0.122</v>
       </c>
       <c r="B63" t="n">
-        <v>1313.880155116923</v>
+        <v>1301.660998563837</v>
       </c>
       <c r="C63" t="n">
-        <v>1313880155.116923</v>
+        <v>1301660998.563837</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>0.124</v>
       </c>
       <c r="B64" t="n">
-        <v>1318.147579397743</v>
+        <v>1304.23916953498</v>
       </c>
       <c r="C64" t="n">
-        <v>1318147579.397743</v>
+        <v>1304239169.534981</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0.126</v>
       </c>
       <c r="B65" t="n">
-        <v>1322.360446640162</v>
+        <v>1306.78122769277</v>
       </c>
       <c r="C65" t="n">
-        <v>1322360446.640162</v>
+        <v>1306781227.69277</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0.128</v>
       </c>
       <c r="B66" t="n">
-        <v>1326.52030154212</v>
+        <v>1309.28823813028</v>
       </c>
       <c r="C66" t="n">
-        <v>1326520301.54212</v>
+        <v>1309288238.13028</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0.13</v>
       </c>
       <c r="B67" t="n">
-        <v>1330.628621820169</v>
+        <v>1311.761218542252</v>
       </c>
       <c r="C67" t="n">
-        <v>1330628621.820169</v>
+        <v>1311761218.542252</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0.132</v>
       </c>
       <c r="B68" t="n">
-        <v>1334.686822091214</v>
+        <v>1314.201142024119</v>
       </c>
       <c r="C68" t="n">
-        <v>1334686822.091214</v>
+        <v>1314201142.024119</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0.134</v>
       </c>
       <c r="B69" t="n">
-        <v>1338.696257474353</v>
+        <v>1316.608939666234</v>
       </c>
       <c r="C69" t="n">
-        <v>1338696257.474353</v>
+        <v>1316608939.666234</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>0.136</v>
       </c>
       <c r="B70" t="n">
-        <v>1342.658226936857</v>
+        <v>1318.985502961073</v>
       </c>
       <c r="C70" t="n">
-        <v>1342658226.936857</v>
+        <v>1318985502.961073</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>0.138</v>
       </c>
       <c r="B71" t="n">
-        <v>1346.573976405925</v>
+        <v>1321.331686039451</v>
       </c>
       <c r="C71" t="n">
-        <v>1346573976.405925</v>
+        <v>1321331686.039451</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>0.14</v>
       </c>
       <c r="B72" t="n">
-        <v>1350.444701665738</v>
+        <v>1323.648307750157</v>
       </c>
       <c r="C72" t="n">
-        <v>1350444701.665738</v>
+        <v>1323648307.750157</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>0.142</v>
       </c>
       <c r="B73" t="n">
-        <v>1354.271551057463</v>
+        <v>1325.936153596034</v>
       </c>
       <c r="C73" t="n">
-        <v>1354271551.057463</v>
+        <v>1325936153.596034</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>0.144</v>
       </c>
       <c r="B74" t="n">
-        <v>1358.055627998183</v>
+        <v>1328.195977538294</v>
       </c>
       <c r="C74" t="n">
-        <v>1358055627.998183</v>
+        <v>1328195977.538294</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0.146</v>
       </c>
       <c r="B75" t="n">
-        <v>1361.797993333207</v>
+        <v>1330.428503679703</v>
       </c>
       <c r="C75" t="n">
-        <v>1361797993.333207</v>
+        <v>1330428503.679703</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0.148</v>
       </c>
       <c r="B76" t="n">
-        <v>1365.499667534914</v>
+        <v>1332.634427836326</v>
       </c>
       <c r="C76" t="n">
-        <v>1365499667.534914</v>
+        <v>1332634427.836326</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>0.15</v>
       </c>
       <c r="B77" t="n">
-        <v>1369.161632760058</v>
+        <v>1334.81441900658</v>
       </c>
       <c r="C77" t="n">
-        <v>1369161632.760058</v>
+        <v>1334814419.00658</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>0.152</v>
       </c>
       <c r="B78" t="n">
-        <v>1372.7848347764</v>
+        <v>1336.969120745593</v>
       </c>
       <c r="C78" t="n">
-        <v>1372784834.7764</v>
+        <v>1336969120.745593</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>0.154</v>
       </c>
       <c r="B79" t="n">
-        <v>1376.370184768564</v>
+        <v>1339.099152452118</v>
       </c>
       <c r="C79" t="n">
-        <v>1376370184.768564</v>
+        <v>1339099152.452118</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0.156</v>
       </c>
       <c r="B80" t="n">
-        <v>1379.918561032149</v>
+        <v>1341.205110574623</v>
       </c>
       <c r="C80" t="n">
-        <v>1379918561.032149</v>
+        <v>1341205110.574623</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>0.158</v>
       </c>
       <c r="B81" t="n">
-        <v>1383.430810564347</v>
+        <v>1343.287569742593</v>
       </c>
       <c r="C81" t="n">
-        <v>1383430810.564347</v>
+        <v>1343287569.742593</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>0.16</v>
       </c>
       <c r="B82" t="n">
-        <v>1386.907750558606</v>
+        <v>1345.34708382857</v>
       </c>
       <c r="C82" t="n">
-        <v>1386907750.558606</v>
+        <v>1345347083.82857</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0.162</v>
       </c>
       <c r="B83" t="n">
-        <v>1390.350169810252</v>
+        <v>1347.384186945971</v>
       </c>
       <c r="C83" t="n">
-        <v>1390350169.810252</v>
+        <v>1347384186.945971</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>0.164</v>
       </c>
       <c r="B84" t="n">
-        <v>1393.758830039397</v>
+        <v>1349.399394387302</v>
       </c>
       <c r="C84" t="n">
-        <v>1393758830.039397</v>
+        <v>1349399394.387302</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0.166</v>
       </c>
       <c r="B85" t="n">
-        <v>1397.134467136942</v>
+        <v>1351.393203507022</v>
       </c>
       <c r="C85" t="n">
-        <v>1397134467.136942</v>
+        <v>1351393203.507022</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>0.168</v>
       </c>
       <c r="B86" t="n">
-        <v>1400.477792339021</v>
+        <v>1353.366094552927</v>
       </c>
       <c r="C86" t="n">
-        <v>1400477792.339021</v>
+        <v>1353366094.552927</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>0.17</v>
       </c>
       <c r="B87" t="n">
-        <v>1403.789493334779</v>
+        <v>1355.318531449642</v>
       </c>
       <c r="C87" t="n">
-        <v>1403789493.334779</v>
+        <v>1355318531.449642</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>0.172</v>
       </c>
       <c r="B88" t="n">
-        <v>1407.070235312015</v>
+        <v>1357.250962537498</v>
       </c>
       <c r="C88" t="n">
-        <v>1407070235.312015</v>
+        <v>1357250962.537498</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>0.174</v>
       </c>
       <c r="B89" t="n">
-        <v>1410.320661944854</v>
+        <v>1359.163821269827</v>
       </c>
       <c r="C89" t="n">
-        <v>1410320661.944854</v>
+        <v>1359163821.269827</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>0.176</v>
       </c>
       <c r="B90" t="n">
-        <v>1413.541396327271</v>
+        <v>1361.057526871455</v>
       </c>
       <c r="C90" t="n">
-        <v>1413541396.327271</v>
+        <v>1361057526.871455</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>0.178</v>
       </c>
       <c r="B91" t="n">
-        <v>1416.733041856036</v>
+        <v>1362.932484960971</v>
       </c>
       <c r="C91" t="n">
-        <v>1416733041.856036</v>
+        <v>1362932484.960971</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>0.18</v>
       </c>
       <c r="B92" t="n">
-        <v>1419.896183066333</v>
+        <v>1364.78908813915</v>
       </c>
       <c r="C92" t="n">
-        <v>1419896183.066333</v>
+        <v>1364789088.13915</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>0.182</v>
       </c>
       <c r="B93" t="n">
-        <v>1423.031386423105</v>
+        <v>1366.627716545711</v>
       </c>
       <c r="C93" t="n">
-        <v>1423031386.423105</v>
+        <v>1366627716.545711</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>0.184</v>
       </c>
       <c r="B94" t="n">
-        <v>1426.139201070906</v>
+        <v>1368.448738386456</v>
       </c>
       <c r="C94" t="n">
-        <v>1426139201.070905</v>
+        <v>1368448738.386456</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>0.186</v>
       </c>
       <c r="B95" t="n">
-        <v>1429.220159544884</v>
+        <v>1370.252510432656</v>
       </c>
       <c r="C95" t="n">
-        <v>1429220159.544884</v>
+        <v>1370252510.432656</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>0.188</v>
       </c>
       <c r="B96" t="n">
-        <v>1432.274778445287</v>
+        <v>1372.039378494437</v>
       </c>
       <c r="C96" t="n">
-        <v>1432274778.445287</v>
+        <v>1372039378.494437</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>0.19</v>
       </c>
       <c r="B97" t="n">
-        <v>1435.30355907773</v>
+        <v>1373.809677869767</v>
       </c>
       <c r="C97" t="n">
-        <v>1435303559.07773</v>
+        <v>1373809677.869766</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>0.192</v>
       </c>
       <c r="B98" t="n">
-        <v>1438.306988061316</v>
+        <v>1375.563733770558</v>
       </c>
       <c r="C98" t="n">
-        <v>1438306988.061316</v>
+        <v>1375563733.770557</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0.194</v>
       </c>
       <c r="B99" t="n">
-        <v>1441.285537906521</v>
+        <v>1377.301861727262</v>
       </c>
       <c r="C99" t="n">
-        <v>1441285537.906521</v>
+        <v>1377301861.727262</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>0.196</v>
       </c>
       <c r="B100" t="n">
-        <v>1444.239667564655</v>
+        <v>1379.024367973262</v>
       </c>
       <c r="C100" t="n">
-        <v>1444239667.564655</v>
+        <v>1379024367.973262</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0.198</v>
       </c>
       <c r="B101" t="n">
-        <v>1447.169822950571</v>
+        <v>1380.731549810261</v>
       </c>
       <c r="C101" t="n">
-        <v>1447169822.950571</v>
+        <v>1380731549.810261</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>0.2</v>
       </c>
       <c r="B102" t="n">
-        <v>1450.076437440164</v>
+        <v>1382.423695955784</v>
       </c>
       <c r="C102" t="n">
-        <v>1450076437.440165</v>
+        <v>1382423695.955784</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>0.202</v>
       </c>
       <c r="B103" t="n">
-        <v>1452.959932344143</v>
+        <v>1384.10108687385</v>
       </c>
       <c r="C103" t="n">
-        <v>1452959932.344143</v>
+        <v>1384101086.87385</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>0.204</v>
       </c>
       <c r="B104" t="n">
-        <v>1455.820717359396</v>
+        <v>1385.763995089772</v>
       </c>
       <c r="C104" t="n">
-        <v>1455820717.359396</v>
+        <v>1385763995.089772</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>0.206</v>
       </c>
       <c r="B105" t="n">
-        <v>1458.659190999248</v>
+        <v>1387.412685490003</v>
       </c>
       <c r="C105" t="n">
-        <v>1458659190.999248</v>
+        <v>1387412685.490003</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>0.208</v>
       </c>
       <c r="B106" t="n">
-        <v>1461.475741003771</v>
+        <v>1389.047415607872</v>
       </c>
       <c r="C106" t="n">
-        <v>1461475741.003771</v>
+        <v>1389047415.607872</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>0.21</v>
       </c>
       <c r="B107" t="n">
-        <v>1464.270744731258</v>
+        <v>1390.668435896011</v>
       </c>
       <c r="C107" t="n">
-        <v>1464270744.731258</v>
+        <v>1390668435.896011</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>0.212</v>
       </c>
       <c r="B108" t="n">
-        <v>1467.044569531912</v>
+        <v>1392.275989986196</v>
       </c>
       <c r="C108" t="n">
-        <v>1467044569.531912</v>
+        <v>1392275989.986196</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>0.214</v>
       </c>
       <c r="B109" t="n">
-        <v>1469.797573104682</v>
+        <v>1393.870314937311</v>
       </c>
       <c r="C109" t="n">
-        <v>1469797573.104682</v>
+        <v>1393870314.937311</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>0.216</v>
       </c>
       <c r="B110" t="n">
-        <v>1472.5301038382</v>
+        <v>1395.451641472082</v>
       </c>
       <c r="C110" t="n">
-        <v>1472530103.8382</v>
+        <v>1395451641.472082</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>0.218</v>
       </c>
       <c r="B111" t="n">
-        <v>1475.242501136629</v>
+        <v>1397.020194203175</v>
       </c>
       <c r="C111" t="n">
-        <v>1475242501.136629</v>
+        <v>1397020194.203175</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>0.22</v>
       </c>
       <c r="B112" t="n">
-        <v>1477.935095731241</v>
+        <v>1398.576191849248</v>
       </c>
       <c r="C112" t="n">
-        <v>1477935095.731241</v>
+        <v>1398576191.849248</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>0.222</v>
       </c>
       <c r="B113" t="n">
-        <v>1480.608209978475</v>
+        <v>1400.119847441471</v>
       </c>
       <c r="C113" t="n">
-        <v>1480608209.978475</v>
+        <v>1400119847.441471</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>0.224</v>
       </c>
       <c r="B114" t="n">
-        <v>1483.262158145164</v>
+        <v>1401.651368521034</v>
       </c>
       <c r="C114" t="n">
-        <v>1483262158.145164</v>
+        <v>1401651368.521034</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>0.226</v>
       </c>
       <c r="B115" t="n">
-        <v>1485.897246681604</v>
+        <v>1403.170957328097</v>
       </c>
       <c r="C115" t="n">
-        <v>1485897246.681604</v>
+        <v>1403170957.328097</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>0.228</v>
       </c>
       <c r="B116" t="n">
-        <v>1488.513774483086</v>
+        <v>1404.678810982634</v>
       </c>
       <c r="C116" t="n">
-        <v>1488513774.483086</v>
+        <v>1404678810.982634</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>0.23</v>
       </c>
       <c r="B117" t="n">
-        <v>1491.112033140462</v>
+        <v>1406.175121657587</v>
       </c>
       <c r="C117" t="n">
-        <v>1491112033.140461</v>
+        <v>1406175121.657587</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>0.232</v>
       </c>
       <c r="B118" t="n">
-        <v>1493.692307180312</v>
+        <v>1407.660076744713</v>
       </c>
       <c r="C118" t="n">
-        <v>1493692307.180312</v>
+        <v>1407660076.744713</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0.234</v>
       </c>
       <c r="B119" t="n">
-        <v>1496.254874295223</v>
+        <v>1409.133859013498</v>
       </c>
       <c r="C119" t="n">
-        <v>1496254874.295223</v>
+        <v>1409133859.013498</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>0.236</v>
       </c>
       <c r="B120" t="n">
-        <v>1498.800005564658</v>
+        <v>1410.596646763491</v>
       </c>
       <c r="C120" t="n">
-        <v>1498800005.564658</v>
+        <v>1410596646.763491</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>0.238</v>
       </c>
       <c r="B121" t="n">
-        <v>1501.327965666892</v>
+        <v>1412.048613970364</v>
       </c>
       <c r="C121" t="n">
-        <v>1501327965.666892</v>
+        <v>1412048613.970364</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>0.24</v>
       </c>
       <c r="B122" t="n">
-        <v>1503.839013082439</v>
+        <v>1413.489930426028</v>
       </c>
       <c r="C122" t="n">
-        <v>1503839013.082439</v>
+        <v>1413489930.426028</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>0.242</v>
       </c>
       <c r="B123" t="n">
-        <v>1506.333400289376</v>
+        <v>1414.920761873082</v>
       </c>
       <c r="C123" t="n">
-        <v>1506333400.289376</v>
+        <v>1414920761.873082</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>0.244</v>
       </c>
       <c r="B124" t="n">
-        <v>1508.811373950962</v>
+        <v>1416.34127013387</v>
       </c>
       <c r="C124" t="n">
-        <v>1508811373.950962</v>
+        <v>1416341270.13387</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>0.246</v>
       </c>
       <c r="B125" t="n">
-        <v>1511.273175095904</v>
+        <v>1417.751613234408</v>
       </c>
       <c r="C125" t="n">
-        <v>1511273175.095904</v>
+        <v>1417751613.234408</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>0.248</v>
       </c>
       <c r="B126" t="n">
-        <v>1513.719039291626</v>
+        <v>1419.151945523425</v>
       </c>
       <c r="C126" t="n">
-        <v>1513719039.291626</v>
+        <v>1419151945.523425</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>0.25</v>
       </c>
       <c r="B127" t="n">
-        <v>1516.149196810855</v>
+        <v>1420.542417786742</v>
       </c>
       <c r="C127" t="n">
-        <v>1516149196.810855</v>
+        <v>1420542417.786742</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>0.252</v>
       </c>
       <c r="B128" t="n">
-        <v>1518.563872791845</v>
+        <v>1421.923177357214</v>
       </c>
       <c r="C128" t="n">
-        <v>1518563872.791845</v>
+        <v>1421923177.357214</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>0.254</v>
       </c>
       <c r="B129" t="n">
-        <v>1520.963287392527</v>
+        <v>1423.294368220439</v>
       </c>
       <c r="C129" t="n">
-        <v>1520963287.392527</v>
+        <v>1423294368.220439</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>0.256</v>
       </c>
       <c r="B130" t="n">
-        <v>1523.347655938847</v>
+        <v>1424.656131116425</v>
       </c>
       <c r="C130" t="n">
-        <v>1523347655.938847</v>
+        <v>1424656131.116425</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>0.258</v>
       </c>
       <c r="B131" t="n">
-        <v>1525.717189067583</v>
+        <v>1426.008603637407</v>
       </c>
       <c r="C131" t="n">
-        <v>1525717189.067583</v>
+        <v>1426008603.637407</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>0.26</v>
       </c>
       <c r="B132" t="n">
-        <v>1528.072092863858</v>
+        <v>1427.351920321981</v>
       </c>
       <c r="C132" t="n">
-        <v>1528072092.863858</v>
+        <v>1427351920.321981</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>0.262</v>
       </c>
       <c r="B133" t="n">
-        <v>1530.412568993602</v>
+        <v>1428.686212745728</v>
       </c>
       <c r="C133" t="n">
-        <v>1530412568.993602</v>
+        <v>1428686212.745728</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>0.264</v>
       </c>
       <c r="B134" t="n">
-        <v>1532.738814831186</v>
+        <v>1430.011609608473</v>
       </c>
       <c r="C134" t="n">
-        <v>1532738814.831186</v>
+        <v>1430011609.608473</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>0.266</v>
       </c>
       <c r="B135" t="n">
-        <v>1535.05102358243</v>
+        <v>1431.328236818346</v>
       </c>
       <c r="C135" t="n">
-        <v>1535051023.58243</v>
+        <v>1431328236.818346</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>0.268</v>
       </c>
       <c r="B136" t="n">
-        <v>1537.349384403188</v>
+        <v>1432.636217572767</v>
       </c>
       <c r="C136" t="n">
-        <v>1537349384.403188</v>
+        <v>1432636217.572767</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>0.27</v>
       </c>
       <c r="B137" t="n">
-        <v>1539.634082513713</v>
+        <v>1433.935672436501</v>
       </c>
       <c r="C137" t="n">
-        <v>1539634082.513713</v>
+        <v>1433935672.436501</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>0.272</v>
       </c>
       <c r="B138" t="n">
-        <v>1541.905299308964</v>
+        <v>1435.226719416911</v>
       </c>
       <c r="C138" t="n">
-        <v>1541905299.308964</v>
+        <v>1435226719.416911</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>0.274</v>
       </c>
       <c r="B139" t="n">
-        <v>1544.163212465038</v>
+        <v>1436.509474036514</v>
       </c>
       <c r="C139" t="n">
-        <v>1544163212.465038</v>
+        <v>1436509474.036514</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>0.276</v>
       </c>
       <c r="B140" t="n">
-        <v>1546.407996041895</v>
+        <v>1437.784049402979</v>
       </c>
       <c r="C140" t="n">
-        <v>1546407996.041895</v>
+        <v>1437784049.402979</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>0.278</v>
       </c>
       <c r="B141" t="n">
-        <v>1548.639820582513</v>
+        <v>1439.050556276653</v>
       </c>
       <c r="C141" t="n">
-        <v>1548639820.582513</v>
+        <v>1439050556.276653</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>0.28</v>
       </c>
       <c r="B142" t="n">
-        <v>1550.858853208643</v>
+        <v>1440.309103135732</v>
       </c>
       <c r="C142" t="n">
-        <v>1550858853.208643</v>
+        <v>1440309103.135732</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>0.282</v>
       </c>
       <c r="B143" t="n">
-        <v>1553.065257713294</v>
+        <v>1441.559796239178</v>
       </c>
       <c r="C143" t="n">
-        <v>1553065257.713294</v>
+        <v>1441559796.239178</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>0.284</v>
       </c>
       <c r="B144" t="n">
-        <v>1555.259194650072</v>
+        <v>1442.802739687459</v>
       </c>
       <c r="C144" t="n">
-        <v>1555259194.650072</v>
+        <v>1442802739.687459</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>0.286</v>
       </c>
       <c r="B145" t="n">
-        <v>1557.440821419526</v>
+        <v>1444.038035481218</v>
       </c>
       <c r="C145" t="n">
-        <v>1557440821.419526</v>
+        <v>1444038035.481219</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>0.288</v>
       </c>
       <c r="B146" t="n">
-        <v>1559.610292352594</v>
+        <v>1445.265783577953</v>
       </c>
       <c r="C146" t="n">
-        <v>1559610292.352594</v>
+        <v>1445265783.577954</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>0.29</v>
       </c>
       <c r="B147" t="n">
-        <v>1561.767758791289</v>
+        <v>1446.48608194678</v>
       </c>
       <c r="C147" t="n">
-        <v>1561767758.791289</v>
+        <v>1446486081.94678</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>0.292</v>
       </c>
       <c r="B148" t="n">
-        <v>1563.913369166718</v>
+        <v>1447.699026621365</v>
       </c>
       <c r="C148" t="n">
-        <v>1563913369.166718</v>
+        <v>1447699026.621365</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>0.294</v>
       </c>
       <c r="B149" t="n">
-        <v>1566.047269074547</v>
+        <v>1448.904711751098</v>
       </c>
       <c r="C149" t="n">
-        <v>1566047269.074547</v>
+        <v>1448904711.751098</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>0.296</v>
       </c>
       <c r="B150" t="n">
-        <v>1568.169601348015</v>
+        <v>1450.10322965057</v>
       </c>
       <c r="C150" t="n">
-        <v>1568169601.348015</v>
+        <v>1450103229.65057</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>0.298</v>
       </c>
       <c r="B151" t="n">
-        <v>1570.280506128582</v>
+        <v>1451.294670847434</v>
       </c>
       <c r="C151" t="n">
-        <v>1570280506.128582</v>
+        <v>1451294670.847434</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>0.3</v>
       </c>
       <c r="B152" t="n">
-        <v>1572.380120934322</v>
+        <v>1452.479124128703</v>
       </c>
       <c r="C152" t="n">
-        <v>1572380120.934322</v>
+        <v>1452479124.128703</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>0.302</v>
       </c>
       <c r="B153" t="n">
-        <v>1574.468580726118</v>
+        <v>1453.656676585548</v>
       </c>
       <c r="C153" t="n">
-        <v>1574468580.726119</v>
+        <v>1453656676.585548</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>0.304</v>
       </c>
       <c r="B154" t="n">
-        <v>1576.546017971783</v>
+        <v>1454.827413656655</v>
       </c>
       <c r="C154" t="n">
-        <v>1576546017.971783</v>
+        <v>1454827413.656655</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>0.306</v>
       </c>
       <c r="B155" t="n">
-        <v>1578.61256270814</v>
+        <v>1455.991419170202</v>
       </c>
       <c r="C155" t="n">
-        <v>1578612562.70814</v>
+        <v>1455991419.170202</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>0.308</v>
       </c>
       <c r="B156" t="n">
-        <v>1580.668342601181</v>
+        <v>1457.148775384496</v>
       </c>
       <c r="C156" t="n">
-        <v>1580668342.601181</v>
+        <v>1457148775.384496</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>0.31</v>
       </c>
       <c r="B157" t="n">
-        <v>1582.713483004347</v>
+        <v>1458.299563027335</v>
       </c>
       <c r="C157" t="n">
-        <v>1582713483.004347</v>
+        <v>1458299563.027335</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>0.312</v>
       </c>
       <c r="B158" t="n">
-        <v>1584.748107015016</v>
+        <v>1459.44386133413</v>
       </c>
       <c r="C158" t="n">
-        <v>1584748107.015016</v>
+        <v>1459443861.33413</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>0.314</v>
       </c>
       <c r="B159" t="n">
-        <v>1586.772335529251</v>
+        <v>1460.581748084849</v>
       </c>
       <c r="C159" t="n">
-        <v>1586772335.529251</v>
+        <v>1460581748.084849</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>0.316</v>
       </c>
       <c r="B160" t="n">
-        <v>1588.786287294892</v>
+        <v>1461.713299639807</v>
       </c>
       <c r="C160" t="n">
-        <v>1588786287.294892</v>
+        <v>1461713299.639807</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>0.318</v>
       </c>
       <c r="B161" t="n">
-        <v>1590.790078963031</v>
+        <v>1462.838590974367</v>
       </c>
       <c r="C161" t="n">
-        <v>1590790078.963031</v>
+        <v>1462838590.974367</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>0.32</v>
       </c>
       <c r="B162" t="n">
-        <v>1592.783825137943</v>
+        <v>1463.957695712573</v>
       </c>
       <c r="C162" t="n">
-        <v>1592783825.137943</v>
+        <v>1463957695.712574</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>0.322</v>
       </c>
       <c r="B163" t="n">
-        <v>1594.767638425523</v>
+        <v>1465.070686159764</v>
       </c>
       <c r="C163" t="n">
-        <v>1594767638.425523</v>
+        <v>1465070686.159764</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>0.324</v>
       </c>
       <c r="B164" t="n">
-        <v>1596.741629480285</v>
+        <v>1466.177633334205</v>
       </c>
       <c r="C164" t="n">
-        <v>1596741629.480285</v>
+        <v>1466177633.334205</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>0.326</v>
       </c>
       <c r="B165" t="n">
-        <v>1598.705907050976</v>
+        <v>1467.278606997769</v>
       </c>
       <c r="C165" t="n">
-        <v>1598705907.050976</v>
+        <v>1467278606.997768</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>0.328</v>
       </c>
       <c r="B166" t="n">
-        <v>1600.660578024845</v>
+        <v>1468.373675685705</v>
       </c>
       <c r="C166" t="n">
-        <v>1600660578.024845</v>
+        <v>1468373675.685705</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>0.33</v>
       </c>
       <c r="B167" t="n">
-        <v>1602.605747470624</v>
+        <v>1469.462906735523</v>
       </c>
       <c r="C167" t="n">
-        <v>1602605747.470624</v>
+        <v>1469462906.735523</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>0.332</v>
       </c>
       <c r="B168" t="n">
-        <v>1604.541518680267</v>
+        <v>1470.546366315032</v>
       </c>
       <c r="C168" t="n">
-        <v>1604541518.680267</v>
+        <v>1470546366.315032</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>0.334</v>
       </c>
       <c r="B169" t="n">
-        <v>1606.467993209479</v>
+        <v>1471.624119449549</v>
       </c>
       <c r="C169" t="n">
-        <v>1606467993.209479</v>
+        <v>1471624119.449549</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>0.336</v>
       </c>
       <c r="B170" t="n">
-        <v>1608.385270917091</v>
+        <v>1472.696230048328</v>
       </c>
       <c r="C170" t="n">
-        <v>1608385270.917091</v>
+        <v>1472696230.048328</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>0.338</v>
       </c>
       <c r="B171" t="n">
-        <v>1610.293450003308</v>
+        <v>1473.762760930215</v>
       </c>
       <c r="C171" t="n">
-        <v>1610293450.003308</v>
+        <v>1473762760.930215</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>0.34</v>
       </c>
       <c r="B172" t="n">
-        <v>1612.192627046879</v>
+        <v>1474.823773848573</v>
       </c>
       <c r="C172" t="n">
-        <v>1612192627.046879</v>
+        <v>1474823773.848573</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>0.342</v>
       </c>
       <c r="B173" t="n">
-        <v>1614.082897041217</v>
+        <v>1475.879329515486</v>
       </c>
       <c r="C173" t="n">
-        <v>1614082897.041217</v>
+        <v>1475879329.515486</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>0.344</v>
       </c>
       <c r="B174" t="n">
-        <v>1615.964353429512</v>
+        <v>1476.929487625286</v>
       </c>
       <c r="C174" t="n">
-        <v>1615964353.429512</v>
+        <v>1476929487.625286</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>0.346</v>
       </c>
       <c r="B175" t="n">
-        <v>1617.837088138865</v>
+        <v>1477.974306877404</v>
       </c>
       <c r="C175" t="n">
-        <v>1617837088.138865</v>
+        <v>1477974306.877404</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>0.348</v>
       </c>
       <c r="B176" t="n">
-        <v>1619.701191613479</v>
+        <v>1479.01384499859</v>
       </c>
       <c r="C176" t="n">
-        <v>1619701191.613479</v>
+        <v>1479013844.99859</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>0.35</v>
       </c>
       <c r="B177" t="n">
-        <v>1621.556752846939</v>
+        <v>1480.048158764501</v>
       </c>
       <c r="C177" t="n">
-        <v>1621556752.846939</v>
+        <v>1480048158.764501</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>0.352</v>
       </c>
       <c r="B178" t="n">
-        <v>1623.403859413605</v>
+        <v>1481.077304020704</v>
       </c>
       <c r="C178" t="n">
-        <v>1623403859.413605</v>
+        <v>1481077304.020704</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>0.354</v>
       </c>
       <c r="B179" t="n">
-        <v>1625.242597499158</v>
+        <v>1482.101335703084</v>
       </c>
       <c r="C179" t="n">
-        <v>1625242597.499158</v>
+        <v>1482101335.703084</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>0.356</v>
       </c>
       <c r="B180" t="n">
-        <v>1627.073051930311</v>
+        <v>1483.120307857701</v>
       </c>
       <c r="C180" t="n">
-        <v>1627073051.930311</v>
+        <v>1483120307.857701</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>0.358</v>
       </c>
       <c r="B181" t="n">
-        <v>1628.895306203734</v>
+        <v>1484.134273660103</v>
       </c>
       <c r="C181" t="n">
-        <v>1628895306.203733</v>
+        <v>1484134273.660103</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>0.36</v>
       </c>
       <c r="B182" t="n">
-        <v>1630.709442514194</v>
+        <v>1485.143285434116</v>
       </c>
       <c r="C182" t="n">
-        <v>1630709442.514194</v>
+        <v>1485143285.434116</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>0.362</v>
       </c>
       <c r="B183" t="n">
-        <v>1632.515541781955</v>
+        <v>1486.147394670119</v>
       </c>
       <c r="C183" t="n">
-        <v>1632515541.781955</v>
+        <v>1486147394.670119</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>0.364</v>
       </c>
       <c r="B184" t="n">
-        <v>1634.31368367945</v>
+        <v>1487.146652042842</v>
       </c>
       <c r="C184" t="n">
-        <v>1634313683.67945</v>
+        <v>1487146652.042842</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>0.366</v>
       </c>
       <c r="B185" t="n">
-        <v>1636.10394665725</v>
+        <v>1488.141107428674</v>
       </c>
       <c r="C185" t="n">
-        <v>1636103946.65725</v>
+        <v>1488141107.428674</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>0.368</v>
       </c>
       <c r="B186" t="n">
-        <v>1637.886407969359</v>
+        <v>1489.130809922524</v>
       </c>
       <c r="C186" t="n">
-        <v>1637886407.969359</v>
+        <v>1489130809.922524</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>0.37</v>
       </c>
       <c r="B187" t="n">
-        <v>1639.661143697849</v>
+        <v>1490.115807854228</v>
       </c>
       <c r="C187" t="n">
-        <v>1639661143.697849</v>
+        <v>1490115807.854228</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>0.372</v>
       </c>
       <c r="B188" t="n">
-        <v>1641.428228776854</v>
+        <v>1491.096148804526</v>
       </c>
       <c r="C188" t="n">
-        <v>1641428228.776855</v>
+        <v>1491096148.804526</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>0.374</v>
       </c>
       <c r="B189" t="n">
-        <v>1643.187737015957</v>
+        <v>1492.071879620628</v>
       </c>
       <c r="C189" t="n">
-        <v>1643187737.015957</v>
+        <v>1492071879.620628</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>0.376</v>
       </c>
       <c r="B190" t="n">
-        <v>1644.939741122961</v>
+        <v>1493.04304643137</v>
       </c>
       <c r="C190" t="n">
-        <v>1644939741.122961</v>
+        <v>1493043046.43137</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>0.378</v>
       </c>
       <c r="B191" t="n">
-        <v>1646.684312726102</v>
+        <v>1494.009694661974</v>
       </c>
       <c r="C191" t="n">
-        <v>1646684312.726102</v>
+        <v>1494009694.661974</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>0.38</v>
       </c>
       <c r="B192" t="n">
-        <v>1648.421522395682</v>
+        <v>1494.971869048441</v>
       </c>
       <c r="C192" t="n">
-        <v>1648421522.395682</v>
+        <v>1494971869.04844</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>0.382</v>
       </c>
       <c r="B193" t="n">
-        <v>1650.151439665165</v>
+        <v>1495.929613651561</v>
       </c>
       <c r="C193" t="n">
-        <v>1650151439.665165</v>
+        <v>1495929613.651561</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>0.384</v>
       </c>
       <c r="B194" t="n">
-        <v>1651.874133051745</v>
+        <v>1496.882971870579</v>
       </c>
       <c r="C194" t="n">
-        <v>1651874133.051745</v>
+        <v>1496882971.870579</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>0.386</v>
       </c>
       <c r="B195" t="n">
-        <v>1653.589670076396</v>
+        <v>1497.831986456509</v>
       </c>
       <c r="C195" t="n">
-        <v>1653589670.076396</v>
+        <v>1497831986.456509</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>0.388</v>
       </c>
       <c r="B196" t="n">
-        <v>1655.298117283434</v>
+        <v>1498.776699525109</v>
       </c>
       <c r="C196" t="n">
-        <v>1655298117.283434</v>
+        <v>1498776699.525109</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>0.39</v>
       </c>
       <c r="B197" t="n">
-        <v>1656.999540259584</v>
+        <v>1499.717152569541</v>
       </c>
       <c r="C197" t="n">
-        <v>1656999540.259584</v>
+        <v>1499717152.569541</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>0.392</v>
       </c>
       <c r="B198" t="n">
-        <v>1658.694003652591</v>
+        <v>1500.653386472706</v>
       </c>
       <c r="C198" t="n">
-        <v>1658694003.652591</v>
+        <v>1500653386.472706</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>0.394</v>
       </c>
       <c r="B199" t="n">
-        <v>1660.381571189368</v>
+        <v>1501.585441519277</v>
       </c>
       <c r="C199" t="n">
-        <v>1660381571.189368</v>
+        <v>1501585441.519277</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>0.396</v>
       </c>
       <c r="B200" t="n">
-        <v>1662.06230569371</v>
+        <v>1502.513357407438</v>
       </c>
       <c r="C200" t="n">
-        <v>1662062305.69371</v>
+        <v>1502513357.407439</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>0.398</v>
       </c>
       <c r="B201" t="n">
-        <v>1663.736269103572</v>
+        <v>1503.437173260328</v>
       </c>
       <c r="C201" t="n">
-        <v>1663736269.103572</v>
+        <v>1503437173.260328</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>0.4</v>
       </c>
       <c r="B202" t="n">
-        <v>1665.40352248794</v>
+        <v>1504.35692763721</v>
       </c>
       <c r="C202" t="n">
-        <v>1665403522.48794</v>
+        <v>1504356927.63721</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>0.402</v>
       </c>
       <c r="B203" t="n">
-        <v>1667.064126063291</v>
+        <v>1505.272658544367</v>
       </c>
       <c r="C203" t="n">
-        <v>1667064126.063291</v>
+        <v>1505272658.544367</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>0.404</v>
       </c>
       <c r="B204" t="n">
-        <v>1668.718139209663</v>
+        <v>1506.184403445737</v>
       </c>
       <c r="C204" t="n">
-        <v>1668718139.209663</v>
+        <v>1506184403.445737</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>0.406</v>
       </c>
       <c r="B205" t="n">
-        <v>1670.365620486351</v>
+        <v>1507.092199273289</v>
       </c>
       <c r="C205" t="n">
-        <v>1670365620.486351</v>
+        <v>1507092199.273289</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>0.408</v>
       </c>
       <c r="B206" t="n">
-        <v>1672.00662764722</v>
+        <v>1507.99608243715</v>
       </c>
       <c r="C206" t="n">
-        <v>1672006627.64722</v>
+        <v>1507996082.43715</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>0.41</v>
       </c>
       <c r="B207" t="n">
-        <v>1673.641217655672</v>
+        <v>1508.896088835494</v>
       </c>
       <c r="C207" t="n">
-        <v>1673641217.655672</v>
+        <v>1508896088.835494</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>0.412</v>
       </c>
       <c r="B208" t="n">
-        <v>1675.269446699252</v>
+        <v>1509.792253864195</v>
       </c>
       <c r="C208" t="n">
-        <v>1675269446.699252</v>
+        <v>1509792253.864195</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>0.414</v>
       </c>
       <c r="B209" t="n">
-        <v>1676.891370203924</v>
+        <v>1510.684612426248</v>
       </c>
       <c r="C209" t="n">
-        <v>1676891370.203924</v>
+        <v>1510684612.426248</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>0.416</v>
       </c>
       <c r="B210" t="n">
-        <v>1678.507042848012</v>
+        <v>1511.573198940979</v>
       </c>
       <c r="C210" t="n">
-        <v>1678507042.848012</v>
+        <v>1511573198.940979</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>0.418</v>
       </c>
       <c r="B211" t="n">
-        <v>1680.11651857582</v>
+        <v>1512.458047353028</v>
       </c>
       <c r="C211" t="n">
-        <v>1680116518.57582</v>
+        <v>1512458047.353028</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>0.42</v>
       </c>
       <c r="B212" t="n">
-        <v>1681.719850610943</v>
+        <v>1513.339191141129</v>
       </c>
       <c r="C212" t="n">
-        <v>1681719850.610943</v>
+        <v>1513339191.141129</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>0.422</v>
       </c>
       <c r="B213" t="n">
-        <v>1683.317091469268</v>
+        <v>1514.216663326687</v>
       </c>
       <c r="C213" t="n">
-        <v>1683317091.469268</v>
+        <v>1514216663.326687</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>0.424</v>
       </c>
       <c r="B214" t="n">
-        <v>1684.908292971691</v>
+        <v>1515.090496482158</v>
       </c>
       <c r="C214" t="n">
-        <v>1684908292.971691</v>
+        <v>1515090496.482157</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>0.426</v>
       </c>
       <c r="B215" t="n">
-        <v>1686.493506256539</v>
+        <v>1515.96072273923</v>
       </c>
       <c r="C215" t="n">
-        <v>1686493506.256539</v>
+        <v>1515960722.73923</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>0.428</v>
       </c>
       <c r="B216" t="n">
-        <v>1688.072781791711</v>
+        <v>1516.827373796829</v>
       </c>
       <c r="C216" t="n">
-        <v>1688072781.791711</v>
+        <v>1516827373.796829</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>0.43</v>
       </c>
       <c r="B217" t="n">
-        <v>1689.646169386554</v>
+        <v>1517.690480928931</v>
       </c>
       <c r="C217" t="n">
-        <v>1689646169.386554</v>
+        <v>1517690480.928931</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>0.432</v>
       </c>
       <c r="B218" t="n">
-        <v>1691.213718203468</v>
+        <v>1518.550074992204</v>
       </c>
       <c r="C218" t="n">
-        <v>1691213718.203469</v>
+        <v>1518550074.992204</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>0.434</v>
       </c>
       <c r="B219" t="n">
-        <v>1692.775476769266</v>
+        <v>1519.406186433479</v>
       </c>
       <c r="C219" t="n">
-        <v>1692775476.769266</v>
+        <v>1519406186.433479</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>0.436</v>
       </c>
       <c r="B220" t="n">
-        <v>1694.331492986261</v>
+        <v>1520.258845297048</v>
       </c>
       <c r="C220" t="n">
-        <v>1694331492.986261</v>
+        <v>1520258845.297048</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>0.438</v>
       </c>
       <c r="B221" t="n">
-        <v>1695.881814143135</v>
+        <v>1521.108081231807</v>
       </c>
       <c r="C221" t="n">
-        <v>1695881814.143135</v>
+        <v>1521108081.231807</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>0.44</v>
       </c>
       <c r="B222" t="n">
-        <v>1697.426486925553</v>
+        <v>1521.953923498229</v>
       </c>
       <c r="C222" t="n">
-        <v>1697426486.925553</v>
+        <v>1521953923.498229</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>0.442</v>
       </c>
       <c r="B223" t="n">
-        <v>1698.965557426551</v>
+        <v>1522.796400975196</v>
       </c>
       <c r="C223" t="n">
-        <v>1698965557.426551</v>
+        <v>1522796400.975196</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>0.444</v>
       </c>
       <c r="B224" t="n">
-        <v>1700.499071156704</v>
+        <v>1523.635542166673</v>
       </c>
       <c r="C224" t="n">
-        <v>1700499071.156704</v>
+        <v>1523635542.166673</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>0.446</v>
       </c>
       <c r="B225" t="n">
-        <v>1702.027073054063</v>
+        <v>1524.471375208235</v>
       </c>
       <c r="C225" t="n">
-        <v>1702027073.054063</v>
+        <v>1524471375.208235</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>0.448</v>
       </c>
       <c r="B226" t="n">
-        <v>1703.549607493893</v>
+        <v>1525.303927873454</v>
       </c>
       <c r="C226" t="n">
-        <v>1703549607.493893</v>
+        <v>1525303927.873454</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>0.45</v>
       </c>
       <c r="B227" t="n">
-        <v>1705.066718298193</v>
+        <v>1526.133227580151</v>
       </c>
       <c r="C227" t="n">
-        <v>1705066718.298193</v>
+        <v>1526133227.580151</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>0.452</v>
       </c>
       <c r="B228" t="n">
-        <v>1706.578448745015</v>
+        <v>1526.959301396505</v>
       </c>
       <c r="C228" t="n">
-        <v>1706578448.745015</v>
+        <v>1526959301.396505</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>0.454</v>
       </c>
       <c r="B229" t="n">
-        <v>1708.084841577587</v>
+        <v>1527.782176047036</v>
       </c>
       <c r="C229" t="n">
-        <v>1708084841.577587</v>
+        <v>1527782176.047036</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>0.456</v>
       </c>
       <c r="B230" t="n">
-        <v>1709.585939013245</v>
+        <v>1528.601877918458</v>
       </c>
       <c r="C230" t="n">
-        <v>1709585939.013246</v>
+        <v>1528601877.918458</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>0.458</v>
       </c>
       <c r="B231" t="n">
-        <v>1711.081782752176</v>
+        <v>1529.418433065409</v>
       </c>
       <c r="C231" t="n">
-        <v>1711081782.752177</v>
+        <v>1529418433.065409</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>0.46</v>
       </c>
       <c r="B232" t="n">
-        <v>1712.572413985976</v>
+        <v>1530.231867216057</v>
       </c>
       <c r="C232" t="n">
-        <v>1712572413.985976</v>
+        <v>1530231867.216057</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>0.462</v>
       </c>
       <c r="B233" t="n">
-        <v>1714.05787340603</v>
+        <v>1531.042205777586</v>
       </c>
       <c r="C233" t="n">
-        <v>1714057873.40603</v>
+        <v>1531042205.777586</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>0.464</v>
       </c>
       <c r="B234" t="n">
-        <v>1715.538201211726</v>
+        <v>1531.849473841572</v>
       </c>
       <c r="C234" t="n">
-        <v>1715538201.211726</v>
+        <v>1531849473.841572</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>0.466</v>
       </c>
       <c r="B235" t="n">
-        <v>1717.01343711849</v>
+        <v>1532.653696189245</v>
       </c>
       <c r="C235" t="n">
-        <v>1717013437.11849</v>
+        <v>1532653696.189245</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>0.468</v>
       </c>
       <c r="B236" t="n">
-        <v>1718.483620365658</v>
+        <v>1533.45489729663</v>
       </c>
       <c r="C236" t="n">
-        <v>1718483620.365659</v>
+        <v>1533454897.29663</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>0.47</v>
       </c>
       <c r="B237" t="n">
-        <v>1719.948789724192</v>
+        <v>1534.253101339603</v>
       </c>
       <c r="C237" t="n">
-        <v>1719948789.724192</v>
+        <v>1534253101.339603</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>0.472</v>
       </c>
       <c r="B238" t="n">
-        <v>1721.408983504232</v>
+        <v>1535.04833219882</v>
       </c>
       <c r="C238" t="n">
-        <v>1721408983.504232</v>
+        <v>1535048332.19882</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>0.474</v>
       </c>
       <c r="B239" t="n">
-        <v>1722.8642395625</v>
+        <v>1535.840613464558</v>
       </c>
       <c r="C239" t="n">
-        <v>1722864239.5625</v>
+        <v>1535840613.464558</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>0.476</v>
       </c>
       <c r="B240" t="n">
-        <v>1724.31459530955</v>
+        <v>1536.629968441453</v>
       </c>
       <c r="C240" t="n">
-        <v>1724314595.30955</v>
+        <v>1536629968.441453</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>0.478</v>
       </c>
       <c r="B241" t="n">
-        <v>1725.76008771688</v>
+        <v>1537.416420153139</v>
       </c>
       <c r="C241" t="n">
-        <v>1725760087.71688</v>
+        <v>1537416420.153139</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>0.48</v>
       </c>
       <c r="B242" t="n">
-        <v>1727.200753323887</v>
+        <v>1538.199991346798</v>
       </c>
       <c r="C242" t="n">
-        <v>1727200753.323887</v>
+        <v>1538199991.346798</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>0.482</v>
       </c>
       <c r="B243" t="n">
-        <v>1728.636628244701</v>
+        <v>1538.980704497611</v>
       </c>
       <c r="C243" t="n">
-        <v>1728636628.244701</v>
+        <v>1538980704.497611</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>0.484</v>
       </c>
       <c r="B244" t="n">
-        <v>1730.06774817487</v>
+        <v>1539.758581813123</v>
       </c>
       <c r="C244" t="n">
-        <v>1730067748.17487</v>
+        <v>1539758581.813123</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>0.486</v>
       </c>
       <c r="B245" t="n">
-        <v>1731.494148397916</v>
+        <v>1540.533645237522</v>
       </c>
       <c r="C245" t="n">
-        <v>1731494148.397916</v>
+        <v>1540533645.237522</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>0.488</v>
       </c>
       <c r="B246" t="n">
-        <v>1732.915863791768</v>
+        <v>1541.305916455829</v>
       </c>
       <c r="C246" t="n">
-        <v>1732915863.791768</v>
+        <v>1541305916.455829</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>0.49</v>
       </c>
       <c r="B247" t="n">
-        <v>1734.332928835059</v>
+        <v>1542.075416898003</v>
       </c>
       <c r="C247" t="n">
-        <v>1734332928.835059</v>
+        <v>1542075416.898003</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>0.492</v>
       </c>
       <c r="B248" t="n">
-        <v>1735.745377613304</v>
+        <v>1542.842167742971</v>
       </c>
       <c r="C248" t="n">
-        <v>1735745377.613304</v>
+        <v>1542842167.742971</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>0.494</v>
       </c>
       <c r="B249" t="n">
-        <v>1737.153243824965</v>
+        <v>1543.606189922573</v>
       </c>
       <c r="C249" t="n">
-        <v>1737153243.824965</v>
+        <v>1543606189.922573</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>0.496</v>
       </c>
       <c r="B250" t="n">
-        <v>1738.556560787384</v>
+        <v>1544.367504125427</v>
       </c>
       <c r="C250" t="n">
-        <v>1738556560.787384</v>
+        <v>1544367504.125427</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>0.498</v>
       </c>
       <c r="B251" t="n">
-        <v>1739.955361442614</v>
+        <v>1545.126130800731</v>
       </c>
       <c r="C251" t="n">
-        <v>1739955361.442614</v>
+        <v>1545126130.800731</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>0.5</v>
       </c>
       <c r="B252" t="n">
-        <v>1741.349678363131</v>
+        <v>1545.882090161969</v>
       </c>
       <c r="C252" t="n">
-        <v>1741349678.363131</v>
+        <v>1545882090.161969</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>0.505</v>
       </c>
       <c r="B253" t="n">
-        <v>1744.816064812512</v>
+        <v>1547.760449632725</v>
       </c>
       <c r="C253" t="n">
-        <v>1744816064.812512</v>
+        <v>1547760449.632725</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>0.51</v>
       </c>
       <c r="B254" t="n">
-        <v>1748.255121808635</v>
+        <v>1549.622568683324</v>
       </c>
       <c r="C254" t="n">
-        <v>1748255121.808635</v>
+        <v>1549622568.683324</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>0.515</v>
       </c>
       <c r="B255" t="n">
-        <v>1751.667329430236</v>
+        <v>1551.468744757469</v>
       </c>
       <c r="C255" t="n">
-        <v>1751667329.430236</v>
+        <v>1551468744.757469</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>0.52</v>
       </c>
       <c r="B256" t="n">
-        <v>1755.053154764356</v>
+        <v>1553.299267030714</v>
       </c>
       <c r="C256" t="n">
-        <v>1755053154.764356</v>
+        <v>1553299267.030715</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>0.525</v>
       </c>
       <c r="B257" t="n">
-        <v>1758.413052378919</v>
+        <v>1555.114416717196</v>
       </c>
       <c r="C257" t="n">
-        <v>1758413052.378919</v>
+        <v>1555114416.717196</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>0.53</v>
       </c>
       <c r="B258" t="n">
-        <v>1761.747464773797</v>
+        <v>1556.914467362192</v>
       </c>
       <c r="C258" t="n">
-        <v>1761747464.773797</v>
+        <v>1556914467.362192</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>0.535</v>
       </c>
       <c r="B259" t="n">
-        <v>1765.056822811539</v>
+        <v>1558.699685121283</v>
       </c>
       <c r="C259" t="n">
-        <v>1765056822.811539</v>
+        <v>1558699685.121283</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>0.54</v>
       </c>
       <c r="B260" t="n">
-        <v>1768.341546128871</v>
+        <v>1560.470329026849</v>
       </c>
       <c r="C260" t="n">
-        <v>1768341546.12887</v>
+        <v>1560470329.026849</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>0.545</v>
       </c>
       <c r="B261" t="n">
-        <v>1771.602043529971</v>
+        <v>1562.226651242588</v>
       </c>
       <c r="C261" t="n">
-        <v>1771602043.529971</v>
+        <v>1562226651.242588</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>0.55</v>
       </c>
       <c r="B262" t="n">
-        <v>1774.838713362511</v>
+        <v>1563.968897306705</v>
       </c>
       <c r="C262" t="n">
-        <v>1774838713.362511</v>
+        <v>1563968897.306705</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>0.555</v>
       </c>
       <c r="B263" t="n">
-        <v>1778.051943877355</v>
+        <v>1565.697306364357</v>
       </c>
       <c r="C263" t="n">
-        <v>1778051943.877355</v>
+        <v>1565697306.364357</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B264" t="n">
-        <v>1781.242113572763</v>
+        <v>1567.412111389944</v>
       </c>
       <c r="C264" t="n">
-        <v>1781242113.572763</v>
+        <v>1567412111.389944</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B265" t="n">
-        <v>1784.409591523913</v>
+        <v>1569.113539399756</v>
       </c>
       <c r="C265" t="n">
-        <v>1784409591.523913</v>
+        <v>1569113539.399756</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>0.57</v>
       </c>
       <c r="B266" t="n">
-        <v>1787.554737698477</v>
+        <v>1570.801811655489</v>
       </c>
       <c r="C266" t="n">
-        <v>1787554737.698477</v>
+        <v>1570801811.655489</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>0.575</v>
       </c>
       <c r="B267" t="n">
-        <v>1790.677903258967</v>
+        <v>1572.477143859088</v>
       </c>
       <c r="C267" t="n">
-        <v>1790677903.258967</v>
+        <v>1572477143.859088</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>0.58</v>
       </c>
       <c r="B268" t="n">
-        <v>1793.77943085251</v>
+        <v>1574.139746339364</v>
       </c>
       <c r="C268" t="n">
-        <v>1793779430.85251</v>
+        <v>1574139746.339364</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>0.585</v>
       </c>
       <c r="B269" t="n">
-        <v>1796.859654888679</v>
+        <v>1575.789824230805</v>
       </c>
       <c r="C269" t="n">
-        <v>1796859654.888679</v>
+        <v>1575789824.230805</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>0.59</v>
       </c>
       <c r="B270" t="n">
-        <v>1799.918901805979</v>
+        <v>1577.42757764496</v>
       </c>
       <c r="C270" t="n">
-        <v>1799918901.805979</v>
+        <v>1577427577.64496</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>0.595</v>
       </c>
       <c r="B271" t="n">
-        <v>1802.957490327525</v>
+        <v>1579.053201834769</v>
       </c>
       <c r="C271" t="n">
-        <v>1802957490.327525</v>
+        <v>1579053201.834769</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>0.6</v>
       </c>
       <c r="B272" t="n">
-        <v>1805.975731706453</v>
+        <v>1580.666887352194</v>
       </c>
       <c r="C272" t="n">
-        <v>1805975731.706453</v>
+        <v>1580666887.352194</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>0.605</v>
       </c>
       <c r="B273" t="n">
-        <v>1808.973929961553</v>
+        <v>1582.268820199461</v>
       </c>
       <c r="C273" t="n">
-        <v>1808973929.961553</v>
+        <v>1582268820.199461</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>0.61</v>
       </c>
       <c r="B274" t="n">
-        <v>1811.952382103588</v>
+        <v>1583.859181974241</v>
       </c>
       <c r="C274" t="n">
-        <v>1811952382.103588</v>
+        <v>1583859181.974241</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>0.615</v>
       </c>
       <c r="B275" t="n">
-        <v>1814.911378352744</v>
+        <v>1585.438150009041</v>
       </c>
       <c r="C275" t="n">
-        <v>1814911378.352744</v>
+        <v>1585438150.009042</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>0.62</v>
       </c>
       <c r="B276" t="n">
-        <v>1817.851202347626</v>
+        <v>1587.005897505106</v>
       </c>
       <c r="C276" t="n">
-        <v>1817851202.347626</v>
+        <v>1587005897.505106</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>0.625</v>
       </c>
       <c r="B277" t="n">
-        <v>1820.772131346196</v>
+        <v>1588.562593661055</v>
       </c>
       <c r="C277" t="n">
-        <v>1820772131.346196</v>
+        <v>1588562593.661055</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>0.63</v>
       </c>
       <c r="B278" t="n">
-        <v>1823.674436419016</v>
+        <v>1590.10840379654</v>
       </c>
       <c r="C278" t="n">
-        <v>1823674436.419016</v>
+        <v>1590108403.79654</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>0.635</v>
       </c>
       <c r="B279" t="n">
-        <v>1826.55838263517</v>
+        <v>1591.643489471121</v>
       </c>
       <c r="C279" t="n">
-        <v>1826558382.63517</v>
+        <v>1591643489.471121</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>0.64</v>
       </c>
       <c r="B280" t="n">
-        <v>1829.42422924117</v>
+        <v>1593.168008598605</v>
       </c>
       <c r="C280" t="n">
-        <v>1829424229.24117</v>
+        <v>1593168008.598604</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>0.645</v>
       </c>
       <c r="B281" t="n">
-        <v>1832.272229833189</v>
+        <v>1594.682115557039</v>
       </c>
       <c r="C281" t="n">
-        <v>1832272229.833189</v>
+        <v>1594682115.557039</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>0.65</v>
       </c>
       <c r="B282" t="n">
-        <v>1835.102632522903</v>
+        <v>1596.185961294565</v>
       </c>
       <c r="C282" t="n">
-        <v>1835102632.522903</v>
+        <v>1596185961.294565</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>0.655</v>
       </c>
       <c r="B283" t="n">
-        <v>1837.915680097232</v>
+        <v>1597.679693431319</v>
       </c>
       <c r="C283" t="n">
-        <v>1837915680.097232</v>
+        <v>1597679693.431319</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>0.66</v>
       </c>
       <c r="B284" t="n">
-        <v>1840.711610172248</v>
+        <v>1599.163456357544</v>
       </c>
       <c r="C284" t="n">
-        <v>1840711610.172248</v>
+        <v>1599163456.357544</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>0.665</v>
       </c>
       <c r="B285" t="n">
-        <v>1843.490655341508</v>
+        <v>1600.637391328105</v>
       </c>
       <c r="C285" t="n">
-        <v>1843490655.341508</v>
+        <v>1600637391.328104</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>0.67</v>
       </c>
       <c r="B286" t="n">
-        <v>1846.253043319052</v>
+        <v>1602.101636553537</v>
       </c>
       <c r="C286" t="n">
-        <v>1846253043.319052</v>
+        <v>1602101636.553537</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>0.675</v>
       </c>
       <c r="B287" t="n">
-        <v>1848.998997077297</v>
+        <v>1603.556327287804</v>
       </c>
       <c r="C287" t="n">
-        <v>1848998997.077297</v>
+        <v>1603556327.287804</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>0.68</v>
       </c>
       <c r="B288" t="n">
-        <v>1851.728734980042</v>
+        <v>1605.001595912892</v>
       </c>
       <c r="C288" t="n">
-        <v>1851728734.980042</v>
+        <v>1605001595.912892</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B289" t="n">
-        <v>1854.442470910795</v>
+        <v>1606.437572020378</v>
       </c>
       <c r="C289" t="n">
-        <v>1854442470.910795</v>
+        <v>1606437572.020378</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B290" t="n">
-        <v>1857.140414396627</v>
+        <v>1607.864382490116</v>
       </c>
       <c r="C290" t="n">
-        <v>1857140414.396627</v>
+        <v>1607864382.490116</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>0.695</v>
       </c>
       <c r="B291" t="n">
-        <v>1859.822770727721</v>
+        <v>1609.282151566143</v>
       </c>
       <c r="C291" t="n">
-        <v>1859822770.72772</v>
+        <v>1609282151.566143</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>0.7</v>
       </c>
       <c r="B292" t="n">
-        <v>1862.489741072813</v>
+        <v>1610.691000929933</v>
       </c>
       <c r="C292" t="n">
-        <v>1862489741.072813</v>
+        <v>1610691000.929933</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>0.705</v>
       </c>
       <c r="B293" t="n">
-        <v>1865.141522590691</v>
+        <v>1612.09104977111</v>
       </c>
       <c r="C293" t="n">
-        <v>1865141522.590691</v>
+        <v>1612091049.77111</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>0.71</v>
       </c>
       <c r="B294" t="n">
-        <v>1867.778308537902</v>
+        <v>1613.482414855727</v>
       </c>
       <c r="C294" t="n">
-        <v>1867778308.537902</v>
+        <v>1613482414.855727</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>0.715</v>
       </c>
       <c r="B295" t="n">
-        <v>1870.400288372836</v>
+        <v>1614.8652105922</v>
       </c>
       <c r="C295" t="n">
-        <v>1870400288.372836</v>
+        <v>1614865210.5922</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>0.72</v>
       </c>
       <c r="B296" t="n">
-        <v>1873.007647856331</v>
+        <v>1616.239549095009</v>
       </c>
       <c r="C296" t="n">
-        <v>1873007647.856331</v>
+        <v>1616239549.095009</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>0.725</v>
       </c>
       <c r="B297" t="n">
-        <v>1875.600569148925</v>
+        <v>1617.605540246244</v>
       </c>
       <c r="C297" t="n">
-        <v>1875600569.148925</v>
+        <v>1617605540.246244</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>0.73</v>
       </c>
       <c r="B298" t="n">
-        <v>1878.179230904912</v>
+        <v>1618.963291755094</v>
       </c>
       <c r="C298" t="n">
-        <v>1878179230.904912</v>
+        <v>1618963291.755094</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>0.735</v>
       </c>
       <c r="B299" t="n">
-        <v>1880.743808363302</v>
+        <v>1620.312909215345</v>
       </c>
       <c r="C299" t="n">
-        <v>1880743808.363302</v>
+        <v>1620312909.215345</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>0.74</v>
       </c>
       <c r="B300" t="n">
-        <v>1883.294473435831</v>
+        <v>1621.654496160992</v>
       </c>
       <c r="C300" t="n">
-        <v>1883294473.435831</v>
+        <v>1621654496.160992</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>0.745</v>
       </c>
       <c r="B301" t="n">
-        <v>1885.831394792122</v>
+        <v>1622.98815412001</v>
       </c>
       <c r="C301" t="n">
-        <v>1885831394.792122</v>
+        <v>1622988154.12001</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>0.75</v>
       </c>
       <c r="B302" t="n">
-        <v>1888.354737942108</v>
+        <v>1624.313982666379</v>
       </c>
       <c r="C302" t="n">
-        <v>1888354737.942108</v>
+        <v>1624313982.666379</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>0.755</v>
       </c>
       <c r="B303" t="n">
-        <v>1890.86466531583</v>
+        <v>1625.632079470424</v>
       </c>
       <c r="C303" t="n">
-        <v>1890864665.31583</v>
+        <v>1625632079.470424</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>0.76</v>
       </c>
       <c r="B304" t="n">
-        <v>1893.361336340705</v>
+        <v>1626.942540347528</v>
       </c>
       <c r="C304" t="n">
-        <v>1893361336.340705</v>
+        <v>1626942540.347528</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>0.765</v>
       </c>
       <c r="B305" t="n">
-        <v>1895.844907516361</v>
+        <v>1628.245459305294</v>
       </c>
       <c r="C305" t="n">
-        <v>1895844907.516361</v>
+        <v>1628245459.305294</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>0.77</v>
       </c>
       <c r="B306" t="n">
-        <v>1898.315532487131</v>
+        <v>1629.540928589205</v>
       </c>
       <c r="C306" t="n">
-        <v>1898315532.487131</v>
+        <v>1629540928.589205</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>0.775</v>
       </c>
       <c r="B307" t="n">
-        <v>1900.773362112294</v>
+        <v>1630.829038726842</v>
       </c>
       <c r="C307" t="n">
-        <v>1900773362.112294</v>
+        <v>1630829038.726842</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>0.78</v>
       </c>
       <c r="B308" t="n">
-        <v>1903.218544534151</v>
+        <v>1632.10987857072</v>
       </c>
       <c r="C308" t="n">
-        <v>1903218544.534151</v>
+        <v>1632109878.57072</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>0.785</v>
       </c>
       <c r="B309" t="n">
-        <v>1905.651225244004</v>
+        <v>1633.383535339782</v>
       </c>
       <c r="C309" t="n">
-        <v>1905651225.244004</v>
+        <v>1633383535.339782</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>0.79</v>
       </c>
       <c r="B310" t="n">
-        <v>1908.071547146138</v>
+        <v>1634.650094659613</v>
       </c>
       <c r="C310" t="n">
-        <v>1908071547.146138</v>
+        <v>1634650094.659613</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>0.795</v>
       </c>
       <c r="B311" t="n">
-        <v>1910.479650619848</v>
+        <v>1635.909640601417</v>
       </c>
       <c r="C311" t="n">
-        <v>1910479650.619848</v>
+        <v>1635909640.601417</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>0.8</v>
       </c>
       <c r="B312" t="n">
-        <v>1912.875673579613</v>
+        <v>1637.162255719801</v>
       </c>
       <c r="C312" t="n">
-        <v>1912875673.579613</v>
+        <v>1637162255.719801</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>0.805</v>
       </c>
       <c r="B313" t="n">
-        <v>1915.259751533462</v>
+        <v>1638.408021089407</v>
       </c>
       <c r="C313" t="n">
-        <v>1915259751.533462</v>
+        <v>1638408021.089407</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B314" t="n">
-        <v>1917.632017639607</v>
+        <v>1639.647016340447</v>
       </c>
       <c r="C314" t="n">
-        <v>1917632017.639607</v>
+        <v>1639647016.340447</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B315" t="n">
-        <v>1919.992602761407</v>
+        <v>1640.879319693159</v>
       </c>
       <c r="C315" t="n">
-        <v>1919992602.761407</v>
+        <v>1640879319.693159</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>0.82</v>
       </c>
       <c r="B316" t="n">
-        <v>1922.34163552071</v>
+        <v>1642.105007991249</v>
       </c>
       <c r="C316" t="n">
-        <v>1922341635.52071</v>
+        <v>1642105007.991249</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>0.825</v>
       </c>
       <c r="B317" t="n">
-        <v>1924.679242349644</v>
+        <v>1643.324156734333</v>
       </c>
       <c r="C317" t="n">
-        <v>1924679242.349643</v>
+        <v>1643324156.734333</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>0.83</v>
       </c>
       <c r="B318" t="n">
-        <v>1927.005547540904</v>
+        <v>1644.536840109419</v>
       </c>
       <c r="C318" t="n">
-        <v>1927005547.540904</v>
+        <v>1644536840.10942</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>0.835</v>
       </c>
       <c r="B319" t="n">
-        <v>1929.320673296591</v>
+        <v>1645.743131021483</v>
       </c>
       <c r="C319" t="n">
-        <v>1929320673.296591</v>
+        <v>1645743131.021483</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>0.84</v>
       </c>
       <c r="B320" t="n">
-        <v>1931.624739775648</v>
+        <v>1646.943101123135</v>
       </c>
       <c r="C320" t="n">
-        <v>1931624739.775648</v>
+        <v>1646943101.123135</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>0.845</v>
       </c>
       <c r="B321" t="n">
-        <v>1933.917865139942</v>
+        <v>1648.136820843439</v>
       </c>
       <c r="C321" t="n">
-        <v>1933917865.139942</v>
+        <v>1648136820.843439</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>0.85</v>
       </c>
       <c r="B322" t="n">
-        <v>1936.200165599053</v>
+        <v>1649.324359415902</v>
       </c>
       <c r="C322" t="n">
-        <v>1936200165.599053</v>
+        <v>1649324359.415902</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>0.855</v>
       </c>
       <c r="B323" t="n">
-        <v>1938.471755453786</v>
+        <v>1650.505784905661</v>
       </c>
       <c r="C323" t="n">
-        <v>1938471755.453786</v>
+        <v>1650505784.905661</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>0.86</v>
       </c>
       <c r="B324" t="n">
-        <v>1940.732747138474</v>
+        <v>1651.681164235893</v>
       </c>
       <c r="C324" t="n">
-        <v>1940732747.138474</v>
+        <v>1651681164.235893</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>0.865</v>
       </c>
       <c r="B325" t="n">
-        <v>1942.983251262104</v>
+        <v>1652.850563213485</v>
       </c>
       <c r="C325" t="n">
-        <v>1942983251.262104</v>
+        <v>1652850563.213485</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>0.87</v>
       </c>
       <c r="B326" t="n">
-        <v>1945.223376648302</v>
+        <v>1654.014046553979</v>
       </c>
       <c r="C326" t="n">
-        <v>1945223376.648302</v>
+        <v>1654014046.553979</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>0.875</v>
       </c>
       <c r="B327" t="n">
-        <v>1947.453230374218</v>
+        <v>1655.171677905821</v>
       </c>
       <c r="C327" t="n">
-        <v>1947453230.374218</v>
+        <v>1655171677.905821</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>0.88</v>
       </c>
       <c r="B328" t="n">
-        <v>1949.672917808349</v>
+        <v>1656.323519873934</v>
       </c>
       <c r="C328" t="n">
-        <v>1949672917.808349</v>
+        <v>1656323519.873934</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>0.885</v>
       </c>
       <c r="B329" t="n">
-        <v>1951.882542647333</v>
+        <v>1657.469634042642</v>
       </c>
       <c r="C329" t="n">
-        <v>1951882542.647333</v>
+        <v>1657469634.042642</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>0.89</v>
       </c>
       <c r="B330" t="n">
-        <v>1954.082206951746</v>
+        <v>1658.610080997963</v>
       </c>
       <c r="C330" t="n">
-        <v>1954082206.951746</v>
+        <v>1658610080.997963</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>0.895</v>
       </c>
       <c r="B331" t="n">
-        <v>1956.272011180937</v>
+        <v>1659.744920349294</v>
       </c>
       <c r="C331" t="n">
-        <v>1956272011.180937</v>
+        <v>1659744920.349294</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>0.9</v>
       </c>
       <c r="B332" t="n">
-        <v>1958.452054226934</v>
+        <v>1660.874210750503</v>
       </c>
       <c r="C332" t="n">
-        <v>1958452054.226934</v>
+        <v>1660874210.750503</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>0.905</v>
       </c>
       <c r="B333" t="n">
-        <v>1960.622433447445</v>
+        <v>1661.998009920458</v>
       </c>
       <c r="C333" t="n">
-        <v>1960622433.447445</v>
+        <v>1661998009.920458</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>0.91</v>
       </c>
       <c r="B334" t="n">
-        <v>1962.783244697985</v>
+        <v>1663.116374662998</v>
       </c>
       <c r="C334" t="n">
-        <v>1962783244.697985</v>
+        <v>1663116374.662998</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>0.915</v>
       </c>
       <c r="B335" t="n">
-        <v>1964.934582363163</v>
+        <v>1664.229360886374</v>
       </c>
       <c r="C335" t="n">
-        <v>1964934582.363163</v>
+        <v>1664229360.886374</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>0.92</v>
       </c>
       <c r="B336" t="n">
-        <v>1967.076539387146</v>
+        <v>1665.337023622169</v>
       </c>
       <c r="C336" t="n">
-        <v>1967076539.387146</v>
+        <v>1665337023.622169</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>0.925</v>
       </c>
       <c r="B337" t="n">
-        <v>1969.209207303332</v>
+        <v>1666.439417043725</v>
       </c>
       <c r="C337" t="n">
-        <v>1969209207.303332</v>
+        <v>1666439417.043725</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>0.93</v>
       </c>
       <c r="B338" t="n">
-        <v>1971.332676263251</v>
+        <v>1667.536594484081</v>
       </c>
       <c r="C338" t="n">
-        <v>1971332676.263251</v>
+        <v>1667536594.484082</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B339" t="n">
-        <v>1973.447035064735</v>
+        <v>1668.628608453439</v>
       </c>
       <c r="C339" t="n">
-        <v>1973447035.064735</v>
+        <v>1668628608.453439</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B340" t="n">
-        <v>1975.552371179346</v>
+        <v>1669.71551065618</v>
       </c>
       <c r="C340" t="n">
-        <v>1975552371.179346</v>
+        <v>1669715510.65618</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>0.945</v>
       </c>
       <c r="B341" t="n">
-        <v>1977.648770779125</v>
+        <v>1670.797352007443</v>
       </c>
       <c r="C341" t="n">
-        <v>1977648770.779125</v>
+        <v>1670797352.007443</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>0.95</v>
       </c>
       <c r="B342" t="n">
-        <v>1979.736318762654</v>
+        <v>1671.874182649267</v>
       </c>
       <c r="C342" t="n">
-        <v>1979736318.762654</v>
+        <v>1671874182.649267</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>0.955</v>
       </c>
       <c r="B343" t="n">
-        <v>1981.815098780458</v>
+        <v>1672.94605196633</v>
       </c>
       <c r="C343" t="n">
-        <v>1981815098.780458</v>
+        <v>1672946051.96633</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>0.96</v>
       </c>
       <c r="B344" t="n">
-        <v>1983.885193259781</v>
+        <v>1674.013008601281</v>
       </c>
       <c r="C344" t="n">
-        <v>1983885193.259781</v>
+        <v>1674013008.601281</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>0.965</v>
       </c>
       <c r="B345" t="n">
-        <v>1985.946683428733</v>
+        <v>1675.075100469687</v>
       </c>
       <c r="C345" t="n">
-        <v>1985946683.428733</v>
+        <v>1675075100.469687</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>0.97</v>
       </c>
       <c r="B346" t="n">
-        <v>1987.999649339846</v>
+        <v>1676.132374774601</v>
       </c>
       <c r="C346" t="n">
-        <v>1987999649.339845</v>
+        <v>1676132374.774601</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>0.975</v>
       </c>
       <c r="B347" t="n">
-        <v>1990.04416989304</v>
+        <v>1677.184878020764</v>
       </c>
       <c r="C347" t="n">
-        <v>1990044169.89304</v>
+        <v>1677184878.020764</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>0.98</v>
       </c>
       <c r="B348" t="n">
-        <v>1992.080322858039</v>
+        <v>1678.232656028458</v>
       </c>
       <c r="C348" t="n">
-        <v>1992080322.858039</v>
+        <v>1678232656.028458</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>0.985</v>
       </c>
       <c r="B349" t="n">
-        <v>1994.108184896221</v>
+        <v>1679.275753947008</v>
       </c>
       <c r="C349" t="n">
-        <v>1994108184.896221</v>
+        <v>1679275753.947008</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>0.99</v>
       </c>
       <c r="B350" t="n">
-        <v>1996.127831581954</v>
+        <v>1680.314216267955</v>
       </c>
       <c r="C350" t="n">
-        <v>1996127831.581954</v>
+        <v>1680314216.267955</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>0.995</v>
       </c>
       <c r="B351" t="n">
-        <v>1998.139337423405</v>
+        <v>1681.348086837904</v>
       </c>
       <c r="C351" t="n">
-        <v>1998139337.423405</v>
+        <v>1681348086.837904</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="B352" t="n">
-        <v>2000.142775882852</v>
+        <v>1682.37740887106</v>
       </c>
       <c r="C352" t="n">
-        <v>2000142775.882852</v>
+        <v>1682377408.87106</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>1.005</v>
       </c>
       <c r="B353" t="n">
-        <v>2002.138219396508</v>
+        <v>1683.402224961456</v>
       </c>
       <c r="C353" t="n">
-        <v>2002138219.396508</v>
+        <v>1683402224.961456</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>1.01</v>
       </c>
       <c r="B354" t="n">
-        <v>2004.125739393879</v>
+        <v>1684.422577094885</v>
       </c>
       <c r="C354" t="n">
-        <v>2004125739.393879</v>
+        <v>1684422577.094885</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>1.015</v>
       </c>
       <c r="B355" t="n">
-        <v>2006.105406316653</v>
+        <v>1685.438506660547</v>
       </c>
       <c r="C355" t="n">
-        <v>2006105406.316653</v>
+        <v>1685438506.660547</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>1.02</v>
       </c>
       <c r="B356" t="n">
-        <v>2008.077289637152</v>
+        <v>1686.450054462419</v>
       </c>
       <c r="C356" t="n">
-        <v>2008077289.637152</v>
+        <v>1686450054.462419</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>1.025</v>
       </c>
       <c r="B357" t="n">
-        <v>2010.041457876345</v>
+        <v>1687.457260730343</v>
       </c>
       <c r="C357" t="n">
-        <v>2010041457.876345</v>
+        <v>1687457260.730343</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>1.03</v>
       </c>
       <c r="B358" t="n">
-        <v>2011.997978621441</v>
+        <v>1688.460165130868</v>
       </c>
       <c r="C358" t="n">
-        <v>2011997978.621441</v>
+        <v>1688460165.130868</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>1.035</v>
       </c>
       <c r="B359" t="n">
-        <v>2013.946918543083</v>
+        <v>1689.458806777819</v>
       </c>
       <c r="C359" t="n">
-        <v>2013946918.543083</v>
+        <v>1689458806.777819</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>1.04</v>
       </c>
       <c r="B360" t="n">
-        <v>2015.888343412125</v>
+        <v>1690.453224242628</v>
       </c>
       <c r="C360" t="n">
-        <v>2015888343.412125</v>
+        <v>1690453224.242628</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>1.045</v>
       </c>
       <c r="B361" t="n">
-        <v>2017.82231811604</v>
+        <v>1691.44345556442</v>
       </c>
       <c r="C361" t="n">
-        <v>2017822318.11604</v>
+        <v>1691443455.56442</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>1.05</v>
       </c>
       <c r="B362" t="n">
-        <v>2019.748906674944</v>
+        <v>1692.429538259865</v>
       </c>
       <c r="C362" t="n">
-        <v>2019748906.674944</v>
+        <v>1692429538.259865</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>1.055</v>
       </c>
       <c r="B363" t="n">
-        <v>2021.668172257256</v>
+        <v>1693.411509332801</v>
       </c>
       <c r="C363" t="n">
-        <v>2021668172.257256</v>
+        <v>1693411509.332801</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>1.06</v>
       </c>
       <c r="B364" t="n">
-        <v>2023.580177195002</v>
+        <v>1694.389405283634</v>
       </c>
       <c r="C364" t="n">
-        <v>2023580177.195002</v>
+        <v>1694389405.283634</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>1.065</v>
       </c>
       <c r="B365" t="n">
-        <v>2025.484982998775</v>
+        <v>1695.363262118526</v>
       </c>
       <c r="C365" t="n">
-        <v>2025484982.998775</v>
+        <v>1695363262.118526</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>1.07</v>
       </c>
       <c r="B366" t="n">
-        <v>2027.382650372356</v>
+        <v>1696.333115358369</v>
       </c>
       <c r="C366" t="n">
-        <v>2027382650.372356</v>
+        <v>1696333115.358369</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>1.075</v>
       </c>
       <c r="B367" t="n">
-        <v>2029.27323922701</v>
+        <v>1697.299000047559</v>
       </c>
       <c r="C367" t="n">
-        <v>2029273239.22701</v>
+        <v>1697299000.047559</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>1.08</v>
       </c>
       <c r="B368" t="n">
-        <v>2031.156808695466</v>
+        <v>1698.260950762566</v>
       </c>
       <c r="C368" t="n">
-        <v>2031156808.695466</v>
+        <v>1698260950.762566</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>1.085</v>
       </c>
       <c r="B369" t="n">
-        <v>2033.033417145575</v>
+        <v>1699.219001620315</v>
       </c>
       <c r="C369" t="n">
-        <v>2033033417.145575</v>
+        <v>1699219001.620315</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>1.09</v>
       </c>
       <c r="B370" t="n">
-        <v>2034.903122193686</v>
+        <v>1700.17318628638</v>
       </c>
       <c r="C370" t="n">
-        <v>2034903122.193686</v>
+        <v>1700173186.28638</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>1.095</v>
       </c>
       <c r="B371" t="n">
-        <v>2036.765980717709</v>
+        <v>1701.123537982992</v>
       </c>
       <c r="C371" t="n">
-        <v>2036765980.717709</v>
+        <v>1701123537.982992</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>1.1</v>
       </c>
       <c r="B372" t="n">
-        <v>2038.622048869906</v>
+        <v>1702.07008949687</v>
       </c>
       <c r="C372" t="n">
-        <v>2038622048.869906</v>
+        <v>1702070089.49687</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>1.105</v>
       </c>
       <c r="B373" t="n">
-        <v>2040.471382089395</v>
+        <v>1703.012873186879</v>
       </c>
       <c r="C373" t="n">
-        <v>2040471382.089395</v>
+        <v>1703012873.186879</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>1.11</v>
       </c>
       <c r="B374" t="n">
-        <v>2042.314035114388</v>
+        <v>1703.95192099152</v>
       </c>
       <c r="C374" t="n">
-        <v>2042314035.114388</v>
+        <v>1703951920.99152</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>1.115</v>
       </c>
       <c r="B375" t="n">
-        <v>2044.150061994165</v>
+        <v>1704.887264436256</v>
       </c>
       <c r="C375" t="n">
-        <v>2044150061.994165</v>
+        <v>1704887264.436256</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>1.12</v>
       </c>
       <c r="B376" t="n">
-        <v>2045.979516100781</v>
+        <v>1705.818934640676</v>
       </c>
       <c r="C376" t="n">
-        <v>2045979516.100781</v>
+        <v>1705818934.640676</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>1.125</v>
       </c>
       <c r="B377" t="n">
-        <v>2047.802450140542</v>
+        <v>1706.746962325504</v>
       </c>
       <c r="C377" t="n">
-        <v>2047802450.140542</v>
+        <v>1706746962.325504</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>1.13</v>
       </c>
       <c r="B378" t="n">
-        <v>2049.618916165217</v>
+        <v>1707.671377819462</v>
       </c>
       <c r="C378" t="n">
-        <v>2049618916.165217</v>
+        <v>1707671377.819462</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>1.135</v>
       </c>
       <c r="B379" t="n">
-        <v>2051.428965583023</v>
+        <v>1708.592211065975</v>
       </c>
       <c r="C379" t="n">
-        <v>2051428965.583024</v>
+        <v>1708592211.065975</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>1.14</v>
       </c>
       <c r="B380" t="n">
-        <v>2053.232649169379</v>
+        <v>1709.509491629739</v>
       </c>
       <c r="C380" t="n">
-        <v>2053232649.169379</v>
+        <v>1709509491.629739</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>1.145</v>
       </c>
       <c r="B381" t="n">
-        <v>2055.030017077425</v>
+        <v>1710.42324870315</v>
       </c>
       <c r="C381" t="n">
-        <v>2055030017.077425</v>
+        <v>1710423248.70315</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>1.15</v>
       </c>
       <c r="B382" t="n">
-        <v>2056.821118848331</v>
+        <v>1711.333511112591</v>
       </c>
       <c r="C382" t="n">
-        <v>2056821118.848331</v>
+        <v>1711333511.112591</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>1.155</v>
       </c>
       <c r="B383" t="n">
-        <v>2058.606003421388</v>
+        <v>1712.24030732459</v>
       </c>
       <c r="C383" t="n">
-        <v>2058606003.421388</v>
+        <v>1712240307.32459</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>1.16</v>
       </c>
       <c r="B384" t="n">
-        <v>2060.384719143885</v>
+        <v>1713.143665451849</v>
       </c>
       <c r="C384" t="n">
-        <v>2060384719.143885</v>
+        <v>1713143665.451849</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>1.165</v>
       </c>
       <c r="B385" t="n">
-        <v>2062.15731378079</v>
+        <v>1714.043613259139</v>
       </c>
       <c r="C385" t="n">
-        <v>2062157313.78079</v>
+        <v>1714043613.259139</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>1.17</v>
       </c>
       <c r="B386" t="n">
-        <v>2063.923834524227</v>
+        <v>1714.940178169085</v>
       </c>
       <c r="C386" t="n">
-        <v>2063923834.524227</v>
+        <v>1714940178.169085</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>1.175</v>
       </c>
       <c r="B387" t="n">
-        <v>2065.684328002755</v>
+        <v>1715.833387267816</v>
       </c>
       <c r="C387" t="n">
-        <v>2065684328.002755</v>
+        <v>1715833387.267816</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>1.18</v>
       </c>
       <c r="B388" t="n">
-        <v>2067.438840290473</v>
+        <v>1716.723267310512</v>
       </c>
       <c r="C388" t="n">
-        <v>2067438840.290473</v>
+        <v>1716723267.310512</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>1.185</v>
       </c>
       <c r="B389" t="n">
-        <v>2069.18741691592</v>
+        <v>1717.609844726823</v>
       </c>
       <c r="C389" t="n">
-        <v>2069187416.91592</v>
+        <v>1717609844.726823</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>1.19</v>
       </c>
       <c r="B390" t="n">
-        <v>2070.930102870811</v>
+        <v>1718.493145626191</v>
       </c>
       <c r="C390" t="n">
-        <v>2070930102.870811</v>
+        <v>1718493145.626191</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>1.195</v>
       </c>
       <c r="B391" t="n">
-        <v>2072.666942618588</v>
+        <v>1719.373195803046</v>
       </c>
       <c r="C391" t="n">
-        <v>2072666942.618588</v>
+        <v>1719373195.803046</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>1.2</v>
       </c>
       <c r="B392" t="n">
-        <v>2074.397980102806</v>
+        <v>1720.250020741917</v>
       </c>
       <c r="C392" t="n">
-        <v>2074397980.102806</v>
+        <v>1720250020.741917</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>1.205</v>
       </c>
       <c r="B393" t="n">
-        <v>2076.123258755346</v>
+        <v>1721.123645622419</v>
       </c>
       <c r="C393" t="n">
-        <v>2076123258.755346</v>
+        <v>1721123645.622419</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>1.21</v>
       </c>
       <c r="B394" t="n">
-        <v>2077.842821504468</v>
+        <v>1721.994095324153</v>
       </c>
       <c r="C394" t="n">
-        <v>2077842821.504468</v>
+        <v>1721994095.324153</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>1.215</v>
       </c>
       <c r="B395" t="n">
-        <v>2079.556710782705</v>
+        <v>1722.861394431502</v>
       </c>
       <c r="C395" t="n">
-        <v>2079556710.782705</v>
+        <v>1722861394.431502</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>1.22</v>
       </c>
       <c r="B396" t="n">
-        <v>2081.264968534595</v>
+        <v>1723.725567238331</v>
       </c>
       <c r="C396" t="n">
-        <v>2081264968.534595</v>
+        <v>1723725567.238332</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>1.225</v>
       </c>
       <c r="B397" t="n">
-        <v>2082.967636224277</v>
+        <v>1724.586637752599</v>
       </c>
       <c r="C397" t="n">
-        <v>2082967636.224277</v>
+        <v>1724586637.752599</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>1.23</v>
       </c>
       <c r="B398" t="n">
-        <v>2084.664754842914</v>
+        <v>1725.444629700865</v>
       </c>
       <c r="C398" t="n">
-        <v>2084664754.842914</v>
+        <v>1725444629.700865</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>1.235</v>
       </c>
       <c r="B399" t="n">
-        <v>2086.356364915997</v>
+        <v>1726.299566532723</v>
       </c>
       <c r="C399" t="n">
-        <v>2086356364.915997</v>
+        <v>1726299566.532723</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>1.24</v>
       </c>
       <c r="B400" t="n">
-        <v>2088.04250651049</v>
+        <v>1727.151471425137</v>
       </c>
       <c r="C400" t="n">
-        <v>2088042506.51049</v>
+        <v>1727151471.425137</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>1.245</v>
       </c>
       <c r="B401" t="n">
-        <v>2089.723219241842</v>
+        <v>1728.000367286696</v>
       </c>
       <c r="C401" t="n">
-        <v>2089723219.241842</v>
+        <v>1728000367.286696</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>1.25</v>
       </c>
       <c r="B402" t="n">
-        <v>2091.398542280868</v>
+        <v>1728.846276761784</v>
       </c>
       <c r="C402" t="n">
-        <v>2091398542.280868</v>
+        <v>1728846276.761784</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>1.255</v>
       </c>
       <c r="B403" t="n">
-        <v>2093.068514360492</v>
+        <v>1729.689222234671</v>
       </c>
       <c r="C403" t="n">
-        <v>2093068514.360492</v>
+        <v>1729689222.234671</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>1.26</v>
       </c>
       <c r="B404" t="n">
-        <v>2094.733173782365</v>
+        <v>1730.52922583352</v>
       </c>
       <c r="C404" t="n">
-        <v>2094733173.782365</v>
+        <v>1730529225.83352</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>1.265</v>
       </c>
       <c r="B405" t="n">
-        <v>2096.392558423355</v>
+        <v>1731.366309434323</v>
       </c>
       <c r="C405" t="n">
-        <v>2096392558.423355</v>
+        <v>1731366309.434323</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>1.27</v>
       </c>
       <c r="B406" t="n">
-        <v>2098.04670574192</v>
+        <v>1732.200494664757</v>
       </c>
       <c r="C406" t="n">
-        <v>2098046705.74192</v>
+        <v>1732200494.664757</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>1.275</v>
       </c>
       <c r="B407" t="n">
-        <v>2099.695652784348</v>
+        <v>1733.031802907967</v>
       </c>
       <c r="C407" t="n">
-        <v>2099695652.784348</v>
+        <v>1733031802.907967</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>1.28</v>
       </c>
       <c r="B408" t="n">
-        <v>2101.339436190895</v>
+        <v>1733.860255306275</v>
       </c>
       <c r="C408" t="n">
-        <v>2101339436.190895</v>
+        <v>1733860255.306275</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>1.285</v>
       </c>
       <c r="B409" t="n">
-        <v>2102.978092201799</v>
+        <v>1734.685872764825</v>
       </c>
       <c r="C409" t="n">
-        <v>2102978092.201799</v>
+        <v>1734685872.764826</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>1.29</v>
       </c>
       <c r="B410" t="n">
-        <v>2104.611656663182</v>
+        <v>1735.508675955151</v>
       </c>
       <c r="C410" t="n">
-        <v>2104611656.663182</v>
+        <v>1735508675.955151</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>1.295</v>
       </c>
       <c r="B411" t="n">
-        <v>2106.240165032846</v>
+        <v>1736.32868531868</v>
       </c>
       <c r="C411" t="n">
-        <v>2106240165.032846</v>
+        <v>1736328685.31868</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>1.3</v>
       </c>
       <c r="B412" t="n">
-        <v>2107.86365238596</v>
+        <v>1737.145921070173</v>
       </c>
       <c r="C412" t="n">
-        <v>2107863652.38596</v>
+        <v>1737145921.070173</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>1.305</v>
       </c>
       <c r="B413" t="n">
-        <v>2109.482153420642</v>
+        <v>1737.960403201098</v>
       </c>
       <c r="C413" t="n">
-        <v>2109482153.420642</v>
+        <v>1737960403.201098</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>1.31</v>
       </c>
       <c r="B414" t="n">
-        <v>2111.095702463438</v>
+        <v>1738.77215148294</v>
       </c>
       <c r="C414" t="n">
-        <v>2111095702.463438</v>
+        <v>1738772151.482939</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>1.315</v>
       </c>
       <c r="B415" t="n">
-        <v>2112.704333474703</v>
+        <v>1739.581185470451</v>
       </c>
       <c r="C415" t="n">
-        <v>2112704333.474703</v>
+        <v>1739581185.470451</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>1.32</v>
       </c>
       <c r="B416" t="n">
-        <v>2114.30808005388</v>
+        <v>1740.38752450484</v>
       </c>
       <c r="C416" t="n">
-        <v>2114308080.05388</v>
+        <v>1740387524.50484</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>1.325</v>
       </c>
       <c r="B417" t="n">
-        <v>2115.90697544469</v>
+        <v>1741.191187716901</v>
       </c>
       <c r="C417" t="n">
-        <v>2115906975.44469</v>
+        <v>1741191187.716901</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>1.33</v>
       </c>
       <c r="B418" t="n">
-        <v>2117.50105254022</v>
+        <v>1741.992194030088</v>
       </c>
       <c r="C418" t="n">
-        <v>2117501052.54022</v>
+        <v>1741992194.030088</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>1.335</v>
       </c>
       <c r="B419" t="n">
-        <v>2119.090343887925</v>
+        <v>1742.790562163533</v>
       </c>
       <c r="C419" t="n">
-        <v>2119090343.887925</v>
+        <v>1742790562.163532</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>1.34</v>
       </c>
       <c r="B420" t="n">
-        <v>2120.674881694539</v>
+        <v>1743.586310635001</v>
       </c>
       <c r="C420" t="n">
-        <v>2120674881.694539</v>
+        <v>1743586310.635001</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>1.345</v>
       </c>
       <c r="B421" t="n">
-        <v>2122.254697830894</v>
+        <v>1744.379457763808</v>
       </c>
       <c r="C421" t="n">
-        <v>2122254697.830894</v>
+        <v>1744379457.763808</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>1.35</v>
       </c>
       <c r="B422" t="n">
-        <v>2123.829823836663</v>
+        <v>1745.170021673668</v>
       </c>
       <c r="C422" t="n">
-        <v>2123829823.836663</v>
+        <v>1745170021.673668</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>1.355</v>
       </c>
       <c r="B423" t="n">
-        <v>2125.400290925006</v>
+        <v>1745.958020295499</v>
       </c>
       <c r="C423" t="n">
-        <v>2125400290.925006</v>
+        <v>1745958020.295499</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>1.36</v>
       </c>
       <c r="B424" t="n">
-        <v>2126.966129987147</v>
+        <v>1746.743471370179</v>
       </c>
       <c r="C424" t="n">
-        <v>2126966129.987147</v>
+        <v>1746743471.370179</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>1.365</v>
       </c>
       <c r="B425" t="n">
-        <v>2128.527371596858</v>
+        <v>1747.526392451247</v>
       </c>
       <c r="C425" t="n">
-        <v>2128527371.596858</v>
+        <v>1747526392.451247</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>1.37</v>
       </c>
       <c r="B426" t="n">
-        <v>2130.084046014874</v>
+        <v>1748.30680090756</v>
       </c>
       <c r="C426" t="n">
-        <v>2130084046.014874</v>
+        <v>1748306800.90756</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>1.375</v>
       </c>
       <c r="B427" t="n">
-        <v>2131.636183193226</v>
+        <v>1749.084713925901</v>
       </c>
       <c r="C427" t="n">
-        <v>2131636183.193226</v>
+        <v>1749084713.925901</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,10 @@
         <v>1.38</v>
       </c>
       <c r="B428" t="n">
-        <v>2133.183812779499</v>
+        <v>1749.860148513545</v>
       </c>
       <c r="C428" t="n">
-        <v>2133183812.779499</v>
+        <v>1749860148.513545</v>
       </c>
     </row>
     <row r="429">
@@ -5152,10 +5152,10 @@
         <v>1.385</v>
       </c>
       <c r="B429" t="n">
-        <v>2134.726964121015</v>
+        <v>1750.633121500769</v>
       </c>
       <c r="C429" t="n">
-        <v>2134726964.121015</v>
+        <v>1750633121.500769</v>
       </c>
     </row>
     <row r="430">
@@ -5163,10 +5163,10 @@
         <v>1.39</v>
       </c>
       <c r="B430" t="n">
-        <v>2136.265666268951</v>
+        <v>1751.403649543333</v>
       </c>
       <c r="C430" t="n">
-        <v>2136265666.26895</v>
+        <v>1751403649.543333</v>
       </c>
     </row>
     <row r="431">
@@ -5174,10 +5174,10 @@
         <v>1.395</v>
       </c>
       <c r="B431" t="n">
-        <v>2137.79994798237</v>
+        <v>1752.171749124905</v>
       </c>
       <c r="C431" t="n">
-        <v>2137799947.98237</v>
+        <v>1752171749.124905</v>
       </c>
     </row>
     <row r="432">
@@ -5185,10 +5185,10 @@
         <v>1.4</v>
       </c>
       <c r="B432" t="n">
-        <v>2139.329837732205</v>
+        <v>1752.937436559451</v>
       </c>
       <c r="C432" t="n">
-        <v>2139329837.732205</v>
+        <v>1752937436.559451</v>
       </c>
     </row>
     <row r="433">
@@ -5196,10 +5196,10 @@
         <v>1.405</v>
       </c>
       <c r="B433" t="n">
-        <v>2140.855363705155</v>
+        <v>1753.700727993578</v>
       </c>
       <c r="C433" t="n">
-        <v>2140855363.705155</v>
+        <v>1753700727.993578</v>
       </c>
     </row>
     <row r="434">
@@ -5207,10 +5207,10 @@
         <v>1.41</v>
       </c>
       <c r="B434" t="n">
-        <v>2142.376553807521</v>
+        <v>1754.461639408841</v>
       </c>
       <c r="C434" t="n">
-        <v>2142376553.807521</v>
+        <v>1754461639.408841</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5218,10 @@
         <v>1.415</v>
       </c>
       <c r="B435" t="n">
-        <v>2143.893435668985</v>
+        <v>1755.220186624008</v>
       </c>
       <c r="C435" t="n">
-        <v>2143893435.668985</v>
+        <v>1755220186.624008</v>
       </c>
     </row>
     <row r="436">
@@ -5229,10 +5229,10 @@
         <v>1.42</v>
       </c>
       <c r="B436" t="n">
-        <v>2145.406036646313</v>
+        <v>1755.976385297287</v>
       </c>
       <c r="C436" t="n">
-        <v>2145406036.646313</v>
+        <v>1755976385.297287</v>
       </c>
     </row>
     <row r="437">
@@ -5240,10 +5240,10 @@
         <v>1.425</v>
       </c>
       <c r="B437" t="n">
-        <v>2146.914383827002</v>
+        <v>1756.730250928514</v>
       </c>
       <c r="C437" t="n">
-        <v>2146914383.827002</v>
+        <v>1756730250.928514</v>
       </c>
     </row>
     <row r="438">
@@ -5251,10 +5251,10 @@
         <v>1.43</v>
       </c>
       <c r="B438" t="n">
-        <v>2148.418504032864</v>
+        <v>1757.481798861304</v>
       </c>
       <c r="C438" t="n">
-        <v>2148418504.032865</v>
+        <v>1757481798.861304</v>
       </c>
     </row>
     <row r="439">
@@ -5262,10 +5262,10 @@
         <v>1.435</v>
       </c>
       <c r="B439" t="n">
-        <v>2149.918423823553</v>
+        <v>1758.231044285163</v>
       </c>
       <c r="C439" t="n">
-        <v>2149918423.823553</v>
+        <v>1758231044.285163</v>
       </c>
     </row>
     <row r="440">
@@ -5273,10 +5273,10 @@
         <v>1.44</v>
       </c>
       <c r="B440" t="n">
-        <v>2151.414169500024</v>
+        <v>1758.978002237571</v>
       </c>
       <c r="C440" t="n">
-        <v>2151414169.500024</v>
+        <v>1758978002.237571</v>
       </c>
     </row>
     <row r="441">
@@ -5284,10 +5284,10 @@
         <v>1.445</v>
       </c>
       <c r="B441" t="n">
-        <v>2152.90576710795</v>
+        <v>1759.72268760602</v>
       </c>
       <c r="C441" t="n">
-        <v>2152905767.10795</v>
+        <v>1759722687.60602</v>
       </c>
     </row>
     <row r="442">
@@ -5295,10 +5295,10 @@
         <v>1.45</v>
       </c>
       <c r="B442" t="n">
-        <v>2154.393242441065</v>
+        <v>1760.465115130027</v>
       </c>
       <c r="C442" t="n">
-        <v>2154393242.441064</v>
+        <v>1760465115.130028</v>
       </c>
     </row>
     <row r="443">
@@ -5306,10 +5306,10 @@
         <v>1.455</v>
       </c>
       <c r="B443" t="n">
-        <v>2155.876621044461</v>
+        <v>1761.205299403109</v>
       </c>
       <c r="C443" t="n">
-        <v>2155876621.044461</v>
+        <v>1761205299.403109</v>
       </c>
     </row>
     <row r="444">
@@ -5317,10 +5317,10 @@
         <v>1.46</v>
       </c>
       <c r="B444" t="n">
-        <v>2157.355928217838</v>
+        <v>1761.943254874719</v>
       </c>
       <c r="C444" t="n">
-        <v>2157355928.217838</v>
+        <v>1761943254.874719</v>
       </c>
     </row>
     <row r="445">
@@ -5328,10 +5328,10 @@
         <v>1.465</v>
       </c>
       <c r="B445" t="n">
-        <v>2158.83118901868</v>
+        <v>1762.678995852166</v>
       </c>
       <c r="C445" t="n">
-        <v>2158831189.01868</v>
+        <v>1762678995.852166</v>
       </c>
     </row>
     <row r="446">
@@ -5339,10 +5339,10 @@
         <v>1.47</v>
       </c>
       <c r="B446" t="n">
-        <v>2160.302428265401</v>
+        <v>1763.412536502482</v>
       </c>
       <c r="C446" t="n">
-        <v>2160302428.2654</v>
+        <v>1763412536.502482</v>
       </c>
     </row>
     <row r="447">
@@ -5350,10 +5350,10 @@
         <v>1.475</v>
       </c>
       <c r="B447" t="n">
-        <v>2161.769670540425</v>
+        <v>1764.143890854277</v>
       </c>
       <c r="C447" t="n">
-        <v>2161769670.540425</v>
+        <v>1764143890.854277</v>
       </c>
     </row>
     <row r="448">
@@ -5361,10 +5361,10 @@
         <v>1.48</v>
       </c>
       <c r="B448" t="n">
-        <v>2163.232940193222</v>
+        <v>1764.873072799553</v>
       </c>
       <c r="C448" t="n">
-        <v>2163232940.193223</v>
+        <v>1764873072.799553</v>
       </c>
     </row>
     <row r="449">
@@ -5372,10 +5372,10 @@
         <v>1.485</v>
       </c>
       <c r="B449" t="n">
-        <v>2164.692261343297</v>
+        <v>1765.600096095487</v>
       </c>
       <c r="C449" t="n">
-        <v>2164692261.343297</v>
+        <v>1765600096.095487</v>
       </c>
     </row>
     <row r="450">
@@ -5383,10 +5383,10 @@
         <v>1.49</v>
       </c>
       <c r="B450" t="n">
-        <v>2166.147657883123</v>
+        <v>1766.324974366194</v>
       </c>
       <c r="C450" t="n">
-        <v>2166147657.883123</v>
+        <v>1766324974.366194</v>
       </c>
     </row>
     <row r="451">
@@ -5394,10 +5394,10 @@
         <v>1.495</v>
       </c>
       <c r="B451" t="n">
-        <v>2167.599153481033</v>
+        <v>1767.047721104451</v>
       </c>
       <c r="C451" t="n">
-        <v>2167599153.481033</v>
+        <v>1767047721.104451</v>
       </c>
     </row>
     <row r="452">
@@ -5405,10 +5405,10 @@
         <v>1.5</v>
       </c>
       <c r="B452" t="n">
-        <v>2169.046771584066</v>
+        <v>1767.768349673399</v>
       </c>
       <c r="C452" t="n">
-        <v>2169046771.584066</v>
+        <v>1767768349.673399</v>
       </c>
     </row>
     <row r="453">
@@ -5416,10 +5416,10 @@
         <v>1.505</v>
       </c>
       <c r="B453" t="n">
-        <v>2170.490535420764</v>
+        <v>1768.486873308216</v>
       </c>
       <c r="C453" t="n">
-        <v>2170490535.420763</v>
+        <v>1768486873.308216</v>
       </c>
     </row>
     <row r="454">
@@ -5427,10 +5427,10 @@
         <v>1.51</v>
       </c>
       <c r="B454" t="n">
-        <v>2171.930468003926</v>
+        <v>1769.203305117763</v>
       </c>
       <c r="C454" t="n">
-        <v>2171930468.003926</v>
+        <v>1769203305.117763</v>
       </c>
     </row>
     <row r="455">
@@ -5438,10 +5438,10 @@
         <v>1.515</v>
       </c>
       <c r="B455" t="n">
-        <v>2173.366592133321</v>
+        <v>1769.917658086199</v>
       </c>
       <c r="C455" t="n">
-        <v>2173366592.133321</v>
+        <v>1769917658.0862</v>
       </c>
     </row>
     <row r="456">
@@ -5449,10 +5449,10 @@
         <v>1.52</v>
       </c>
       <c r="B456" t="n">
-        <v>2174.79893039835</v>
+        <v>1770.629945074583</v>
       </c>
       <c r="C456" t="n">
-        <v>2174798930.39835</v>
+        <v>1770629945.074583</v>
       </c>
     </row>
     <row r="457">
@@ -5460,10 +5460,10 @@
         <v>1.525</v>
       </c>
       <c r="B457" t="n">
-        <v>2176.227505180679</v>
+        <v>1771.340178822432</v>
       </c>
       <c r="C457" t="n">
-        <v>2176227505.180679</v>
+        <v>1771340178.822432</v>
       </c>
     </row>
     <row r="458">
@@ -5471,10 +5471,10 @@
         <v>1.53</v>
       </c>
       <c r="B458" t="n">
-        <v>2177.652338656815</v>
+        <v>1772.048371949269</v>
       </c>
       <c r="C458" t="n">
-        <v>2177652338.656815</v>
+        <v>1772048371.94927</v>
       </c>
     </row>
     <row r="459">
@@ -5482,10 +5482,10 @@
         <v>1.535</v>
       </c>
       <c r="B459" t="n">
-        <v>2179.073452800657</v>
+        <v>1772.754536956141</v>
       </c>
       <c r="C459" t="n">
-        <v>2179073452.800657</v>
+        <v>1772754536.956141</v>
       </c>
     </row>
     <row r="460">
@@ -5493,10 +5493,10 @@
         <v>1.54</v>
       </c>
       <c r="B460" t="n">
-        <v>2180.490869385997</v>
+        <v>1773.458686227108</v>
       </c>
       <c r="C460" t="n">
-        <v>2180490869.385997</v>
+        <v>1773458686.227108</v>
       </c>
     </row>
     <row r="461">
@@ -5504,10 +5504,10 @@
         <v>1.545</v>
       </c>
       <c r="B461" t="n">
-        <v>2181.904609988983</v>
+        <v>1774.160832030721</v>
       </c>
       <c r="C461" t="n">
-        <v>2181904609.988983</v>
+        <v>1774160832.030721</v>
       </c>
     </row>
     <row r="462">
@@ -5515,10 +5515,10 @@
         <v>1.55</v>
       </c>
       <c r="B462" t="n">
-        <v>2183.31469599055</v>
+        <v>1774.860986521465</v>
       </c>
       <c r="C462" t="n">
-        <v>2183314695.99055</v>
+        <v>1774860986.521465</v>
       </c>
     </row>
     <row r="463">
@@ -5526,10 +5526,10 @@
         <v>1.555</v>
       </c>
       <c r="B463" t="n">
-        <v>2184.721148578807</v>
+        <v>1775.55916174118</v>
       </c>
       <c r="C463" t="n">
-        <v>2184721148.578806</v>
+        <v>1775559161.74118</v>
       </c>
     </row>
     <row r="464">
@@ -5537,10 +5537,10 @@
         <v>1.56</v>
       </c>
       <c r="B464" t="n">
-        <v>2186.123988751388</v>
+        <v>1776.25536962047</v>
       </c>
       <c r="C464" t="n">
-        <v>2186123988.751389</v>
+        <v>1776255369.62047</v>
       </c>
     </row>
     <row r="465">
@@ -5548,10 +5548,10 @@
         <v>1.565</v>
       </c>
       <c r="B465" t="n">
-        <v>2187.523237317774</v>
+        <v>1776.94962198008</v>
       </c>
       <c r="C465" t="n">
-        <v>2187523237.317774</v>
+        <v>1776949621.98008</v>
       </c>
     </row>
     <row r="466">
@@ -5559,10 +5559,10 @@
         <v>1.57</v>
       </c>
       <c r="B466" t="n">
-        <v>2188.918914901566</v>
+        <v>1777.641930532252</v>
       </c>
       <c r="C466" t="n">
-        <v>2188918914.901566</v>
+        <v>1777641930.532252</v>
       </c>
     </row>
     <row r="467">
@@ -5570,10 +5570,10 @@
         <v>1.575</v>
       </c>
       <c r="B467" t="n">
-        <v>2190.311041942738</v>
+        <v>1778.332306882069</v>
       </c>
       <c r="C467" t="n">
-        <v>2190311041.942738</v>
+        <v>1778332306.882069</v>
       </c>
     </row>
     <row r="468">
@@ -5581,10 +5581,10 @@
         <v>1.58</v>
       </c>
       <c r="B468" t="n">
-        <v>2191.699638699845</v>
+        <v>1779.020762528765</v>
       </c>
       <c r="C468" t="n">
-        <v>2191699638.699845</v>
+        <v>1779020762.528765</v>
       </c>
     </row>
     <row r="469">
@@ -5592,10 +5592,10 @@
         <v>1.585</v>
       </c>
       <c r="B469" t="n">
-        <v>2193.084725252203</v>
+        <v>1779.707308867029</v>
       </c>
       <c r="C469" t="n">
-        <v>2193084725.252203</v>
+        <v>1779707308.867029</v>
       </c>
     </row>
     <row r="470">
@@ -5603,10 +5603,10 @@
         <v>1.59</v>
       </c>
       <c r="B470" t="n">
-        <v>2194.466321502032</v>
+        <v>1780.391957188274</v>
       </c>
       <c r="C470" t="n">
-        <v>2194466321.502032</v>
+        <v>1780391957.188274</v>
       </c>
     </row>
     <row r="471">
@@ -5614,10 +5614,10 @@
         <v>1.595</v>
       </c>
       <c r="B471" t="n">
-        <v>2195.844447176576</v>
+        <v>1781.074718681902</v>
       </c>
       <c r="C471" t="n">
-        <v>2195844447.176576</v>
+        <v>1781074718.681902</v>
       </c>
     </row>
     <row r="472">
@@ -5625,10 +5625,10 @@
         <v>1.6</v>
       </c>
       <c r="B472" t="n">
-        <v>2197.219121830174</v>
+        <v>1781.755604436535</v>
       </c>
       <c r="C472" t="n">
-        <v>2197219121.830173</v>
+        <v>1781755604.436535</v>
       </c>
     </row>
     <row r="473">
@@ -5636,10 +5636,10 @@
         <v>1.605</v>
       </c>
       <c r="B473" t="n">
-        <v>2198.590364846317</v>
+        <v>1782.434625441239</v>
       </c>
       <c r="C473" t="n">
-        <v>2198590364.846317</v>
+        <v>1782434625.441239</v>
       </c>
     </row>
     <row r="474">
@@ -5647,10 +5647,10 @@
         <v>1.61</v>
       </c>
       <c r="B474" t="n">
-        <v>2199.958195439669</v>
+        <v>1783.111792586724</v>
       </c>
       <c r="C474" t="n">
-        <v>2199958195.43967</v>
+        <v>1783111792.586724</v>
       </c>
     </row>
     <row r="475">
@@ -5658,10 +5658,10 @@
         <v>1.615</v>
       </c>
       <c r="B475" t="n">
-        <v>2201.322632658051</v>
+        <v>1783.787116666524</v>
       </c>
       <c r="C475" t="n">
-        <v>2201322632.658051</v>
+        <v>1783787116.666524</v>
       </c>
     </row>
     <row r="476">
@@ -5669,10 +5669,10 @@
         <v>1.62</v>
       </c>
       <c r="B476" t="n">
-        <v>2202.683695384402</v>
+        <v>1784.460608378165</v>
       </c>
       <c r="C476" t="n">
-        <v>2202683695.384402</v>
+        <v>1784460608.378165</v>
       </c>
     </row>
     <row r="477">
@@ -5680,10 +5680,10 @@
         <v>1.625</v>
       </c>
       <c r="B477" t="n">
-        <v>2204.041402338715</v>
+        <v>1785.13227832431</v>
       </c>
       <c r="C477" t="n">
-        <v>2204041402.338715</v>
+        <v>1785132278.32431</v>
       </c>
     </row>
     <row r="478">
@@ -5691,10 +5691,10 @@
         <v>1.63</v>
       </c>
       <c r="B478" t="n">
-        <v>2205.395772079935</v>
+        <v>1785.80213701389</v>
       </c>
       <c r="C478" t="n">
-        <v>2205395772.079936</v>
+        <v>1785802137.013891</v>
       </c>
     </row>
     <row r="479">
@@ -5702,10 +5702,10 @@
         <v>1.635</v>
       </c>
       <c r="B479" t="n">
-        <v>2206.746823007835</v>
+        <v>1786.470194863217</v>
       </c>
       <c r="C479" t="n">
-        <v>2206746823.007835</v>
+        <v>1786470194.863217</v>
       </c>
     </row>
     <row r="480">
@@ -5713,10 +5713,10 @@
         <v>1.64</v>
       </c>
       <c r="B480" t="n">
-        <v>2208.09457336486</v>
+        <v>1787.13646219708</v>
       </c>
       <c r="C480" t="n">
-        <v>2208094573.36486</v>
+        <v>1787136462.19708</v>
       </c>
     </row>
     <row r="481">
@@ -5724,10 +5724,10 @@
         <v>1.645</v>
       </c>
       <c r="B481" t="n">
-        <v>2209.439041237953</v>
+        <v>1787.800949249827</v>
       </c>
       <c r="C481" t="n">
-        <v>2209439041.237953</v>
+        <v>1787800949.249826</v>
       </c>
     </row>
     <row r="482">
@@ -5735,10 +5735,10 @@
         <v>1.65</v>
       </c>
       <c r="B482" t="n">
-        <v>2210.780244560343</v>
+        <v>1788.463666166425</v>
       </c>
       <c r="C482" t="n">
-        <v>2210780244.560343</v>
+        <v>1788463666.166425</v>
       </c>
     </row>
     <row r="483">
@@ -5746,10 +5746,10 @@
         <v>1.655</v>
       </c>
       <c r="B483" t="n">
-        <v>2212.118201113317</v>
+        <v>1789.124623003517</v>
       </c>
       <c r="C483" t="n">
-        <v>2212118201.113317</v>
+        <v>1789124623.003517</v>
       </c>
     </row>
     <row r="484">
@@ -5757,10 +5757,10 @@
         <v>1.66</v>
       </c>
       <c r="B484" t="n">
-        <v>2213.452928527958</v>
+        <v>1789.783829730444</v>
       </c>
       <c r="C484" t="n">
-        <v>2213452928.527958</v>
+        <v>1789783829.730443</v>
       </c>
     </row>
     <row r="485">
@@ -5768,10 +5768,10 @@
         <v>1.665</v>
       </c>
       <c r="B485" t="n">
-        <v>2214.784444286864</v>
+        <v>1790.441296230272</v>
       </c>
       <c r="C485" t="n">
-        <v>2214784444.286864</v>
+        <v>1790441296.230273</v>
       </c>
     </row>
     <row r="486">
@@ -5779,10 +5779,10 @@
         <v>1.67</v>
       </c>
       <c r="B486" t="n">
-        <v>2216.112765725839</v>
+        <v>1791.097032300793</v>
       </c>
       <c r="C486" t="n">
-        <v>2216112765.725839</v>
+        <v>1791097032.300793</v>
       </c>
     </row>
     <row r="487">
@@ -5790,10 +5790,10 @@
         <v>1.675</v>
       </c>
       <c r="B487" t="n">
-        <v>2217.437910035562</v>
+        <v>1791.75104765551</v>
       </c>
       <c r="C487" t="n">
-        <v>2217437910.035562</v>
+        <v>1791751047.65551</v>
       </c>
     </row>
     <row r="488">
@@ -5801,10 +5801,10 @@
         <v>1.68</v>
       </c>
       <c r="B488" t="n">
-        <v>2218.759894263229</v>
+        <v>1792.403351924615</v>
       </c>
       <c r="C488" t="n">
-        <v>2218759894.263229</v>
+        <v>1792403351.924615</v>
       </c>
     </row>
     <row r="489">
@@ -5812,10 +5812,10 @@
         <v>1.685</v>
       </c>
       <c r="B489" t="n">
-        <v>2220.078735314176</v>
+        <v>1793.053954655947</v>
       </c>
       <c r="C489" t="n">
-        <v>2220078735.314177</v>
+        <v>1793053954.655947</v>
       </c>
     </row>
     <row r="490">
@@ -5823,10 +5823,10 @@
         <v>1.69</v>
       </c>
       <c r="B490" t="n">
-        <v>2221.394449953474</v>
+        <v>1793.702865315938</v>
       </c>
       <c r="C490" t="n">
-        <v>2221394449.953474</v>
+        <v>1793702865.315938</v>
       </c>
     </row>
     <row r="491">
@@ -5834,10 +5834,10 @@
         <v>1.695</v>
       </c>
       <c r="B491" t="n">
-        <v>2222.707054807505</v>
+        <v>1794.350093290549</v>
       </c>
       <c r="C491" t="n">
-        <v>2222707054.807505</v>
+        <v>1794350093.290549</v>
       </c>
     </row>
     <row r="492">
@@ -5845,10 +5845,10 @@
         <v>1.7</v>
       </c>
       <c r="B492" t="n">
-        <v>2224.016566365515</v>
+        <v>1794.995647886183</v>
       </c>
       <c r="C492" t="n">
-        <v>2224016566.365515</v>
+        <v>1794995647.886183</v>
       </c>
     </row>
     <row r="493">
@@ -5856,10 +5856,10 @@
         <v>1.71</v>
       </c>
       <c r="B493" t="n">
-        <v>2226.626374873927</v>
+        <v>1796.281773773791</v>
       </c>
       <c r="C493" t="n">
-        <v>2226626374.873928</v>
+        <v>1796281773.773791</v>
       </c>
     </row>
     <row r="494">
@@ -5867,10 +5867,10 @@
         <v>1.72</v>
       </c>
       <c r="B494" t="n">
-        <v>2229.224004707565</v>
+        <v>1797.561315873008</v>
       </c>
       <c r="C494" t="n">
-        <v>2229224004.707565</v>
+        <v>1797561315.873008</v>
       </c>
     </row>
     <row r="495">
@@ -5878,10 +5878,10 @@
         <v>1.73</v>
       </c>
       <c r="B495" t="n">
-        <v>2231.809582996842</v>
+        <v>1798.834345861861</v>
       </c>
       <c r="C495" t="n">
-        <v>2231809582.996842</v>
+        <v>1798834345.861861</v>
       </c>
     </row>
     <row r="496">
@@ -5889,10 +5889,10 @@
         <v>1.74</v>
       </c>
       <c r="B496" t="n">
-        <v>2234.383234819717</v>
+        <v>1800.100934229342</v>
       </c>
       <c r="C496" t="n">
-        <v>2234383234.819716</v>
+        <v>1800100934.229342</v>
       </c>
     </row>
     <row r="497">
@@ -5900,10 +5900,10 @@
         <v>1.75</v>
       </c>
       <c r="B497" t="n">
-        <v>2236.945083246398</v>
+        <v>1801.361150301835</v>
       </c>
       <c r="C497" t="n">
-        <v>2236945083.246397</v>
+        <v>1801361150.301835</v>
       </c>
     </row>
     <row r="498">
@@ -5911,10 +5911,10 @@
         <v>1.76</v>
       </c>
       <c r="B498" t="n">
-        <v>2239.495249382839</v>
+        <v>1802.615062268804</v>
       </c>
       <c r="C498" t="n">
-        <v>2239495249.382839</v>
+        <v>1802615062.268804</v>
       </c>
     </row>
     <row r="499">
@@ -5922,10 +5922,10 @@
         <v>1.77</v>
       </c>
       <c r="B499" t="n">
-        <v>2242.033852413039</v>
+        <v>1803.862737207781</v>
       </c>
       <c r="C499" t="n">
-        <v>2242033852.413039</v>
+        <v>1803862737.207781</v>
       </c>
     </row>
     <row r="500">
@@ -5933,10 +5933,10 @@
         <v>1.78</v>
       </c>
       <c r="B500" t="n">
-        <v>2244.561009640212</v>
+        <v>1805.104241108653</v>
       </c>
       <c r="C500" t="n">
-        <v>2244561009.640213</v>
+        <v>1805104241.108653</v>
       </c>
     </row>
     <row r="501">
@@ -5944,10 +5944,10 @@
         <v>1.79</v>
       </c>
       <c r="B501" t="n">
-        <v>2247.076836526832</v>
+        <v>1806.339638897299</v>
       </c>
       <c r="C501" t="n">
-        <v>2247076836.526832</v>
+        <v>1806339638.897299</v>
       </c>
     </row>
     <row r="502">
@@ -5955,10 +5955,10 @@
         <v>1.8</v>
       </c>
       <c r="B502" t="n">
-        <v>2249.581446733622</v>
+        <v>1807.568994458575</v>
       </c>
       <c r="C502" t="n">
-        <v>2249581446.733622</v>
+        <v>1807568994.458575</v>
       </c>
     </row>
     <row r="503">
@@ -5966,10 +5966,10 @@
         <v>1.81</v>
       </c>
       <c r="B503" t="n">
-        <v>2252.074952157498</v>
+        <v>1808.792370658684</v>
       </c>
       <c r="C503" t="n">
-        <v>2252074952.157498</v>
+        <v>1808792370.658684</v>
       </c>
     </row>
     <row r="504">
@@ -5977,10 +5977,10 @@
         <v>1.82</v>
       </c>
       <c r="B504" t="n">
-        <v>2254.55746296851</v>
+        <v>1810.009829366938</v>
       </c>
       <c r="C504" t="n">
-        <v>2254557462.96851</v>
+        <v>1810009829.366938</v>
       </c>
     </row>
     <row r="505">
@@ -5988,10 +5988,10 @@
         <v>1.83</v>
       </c>
       <c r="B505" t="n">
-        <v>2257.029087645814</v>
+        <v>1811.221431476949</v>
       </c>
       <c r="C505" t="n">
-        <v>2257029087.645814</v>
+        <v>1811221431.476948</v>
       </c>
     </row>
     <row r="506">
@@ -5999,10 +5999,10 @@
         <v>1.84</v>
       </c>
       <c r="B506" t="n">
-        <v>2259.489933012696</v>
+        <v>1812.42723692724</v>
       </c>
       <c r="C506" t="n">
-        <v>2259489933.012696</v>
+        <v>1812427236.92724</v>
       </c>
     </row>
     <row r="507">
@@ -6010,10 +6010,10 @@
         <v>1.85</v>
       </c>
       <c r="B507" t="n">
-        <v>2261.940104270697</v>
+        <v>1813.627304721332</v>
       </c>
       <c r="C507" t="n">
-        <v>2261940104.270697</v>
+        <v>1813627304.721332</v>
       </c>
     </row>
     <row r="508">
@@ -6021,10 +6021,10 @@
         <v>1.86</v>
       </c>
       <c r="B508" t="n">
-        <v>2264.379705032838</v>
+        <v>1814.821692947285</v>
       </c>
       <c r="C508" t="n">
-        <v>2264379705.032837</v>
+        <v>1814821692.947285</v>
       </c>
     </row>
     <row r="509">
@@ -6032,10 +6032,10 @@
         <v>1.87</v>
       </c>
       <c r="B509" t="n">
-        <v>2266.808837356002</v>
+        <v>1816.010458796735</v>
       </c>
       <c r="C509" t="n">
-        <v>2266808837.356002</v>
+        <v>1816010458.796735</v>
       </c>
     </row>
     <row r="510">
@@ -6043,10 +6043,10 @@
         <v>1.88</v>
       </c>
       <c r="B510" t="n">
-        <v>2269.227601772486</v>
+        <v>1817.193658583439</v>
       </c>
       <c r="C510" t="n">
-        <v>2269227601.772486</v>
+        <v>1817193658.583439</v>
       </c>
     </row>
     <row r="511">
@@ -6054,10 +6054,10 @@
         <v>1.89</v>
       </c>
       <c r="B511" t="n">
-        <v>2271.636097320741</v>
+        <v>1818.371347761332</v>
       </c>
       <c r="C511" t="n">
-        <v>2271636097.320741</v>
+        <v>1818371347.761332</v>
       </c>
     </row>
     <row r="512">
@@ -6065,10 +6065,10 @@
         <v>1.9</v>
       </c>
       <c r="B512" t="n">
-        <v>2274.034421575343</v>
+        <v>1819.543580942126</v>
       </c>
       <c r="C512" t="n">
-        <v>2274034421.575343</v>
+        <v>1819543580.942127</v>
       </c>
     </row>
     <row r="513">
@@ -6076,10 +6076,10 @@
         <v>1.91</v>
       </c>
       <c r="B513" t="n">
-        <v>2276.422670676197</v>
+        <v>1820.710411912458</v>
       </c>
       <c r="C513" t="n">
-        <v>2276422670.676198</v>
+        <v>1820710411.912458</v>
       </c>
     </row>
     <row r="514">
@@ -6087,10 +6087,10 @@
         <v>1.92</v>
       </c>
       <c r="B514" t="n">
-        <v>2278.800939357027</v>
+        <v>1821.871893650592</v>
       </c>
       <c r="C514" t="n">
-        <v>2278800939.357027</v>
+        <v>1821871893.650592</v>
       </c>
     </row>
     <row r="515">
@@ -6098,10 +6098,10 @@
         <v>1.93</v>
       </c>
       <c r="B515" t="n">
-        <v>2281.169320973131</v>
+        <v>1823.028078342713</v>
       </c>
       <c r="C515" t="n">
-        <v>2281169320.973131</v>
+        <v>1823028078.342713</v>
       </c>
     </row>
     <row r="516">
@@ -6109,10 +6109,10 @@
         <v>1.94</v>
       </c>
       <c r="B516" t="n">
-        <v>2283.52790752847</v>
+        <v>1824.179017398797</v>
       </c>
       <c r="C516" t="n">
-        <v>2283527907.52847</v>
+        <v>1824179017.398797</v>
       </c>
     </row>
     <row r="517">
@@ -6120,10 +6120,10 @@
         <v>1.95</v>
       </c>
       <c r="B517" t="n">
-        <v>2285.876789702073</v>
+        <v>1825.32476146809</v>
       </c>
       <c r="C517" t="n">
-        <v>2285876789.702073</v>
+        <v>1825324761.46809</v>
       </c>
     </row>
     <row r="518">
@@ -6131,10 +6131,10 @@
         <v>1.96</v>
       </c>
       <c r="B518" t="n">
-        <v>2288.216056873802</v>
+        <v>1826.465360454198</v>
       </c>
       <c r="C518" t="n">
-        <v>2288216056.873802</v>
+        <v>1826465360.454198</v>
       </c>
     </row>
     <row r="519">
@@ -6142,10 +6142,10 @@
         <v>1.97</v>
       </c>
       <c r="B519" t="n">
-        <v>2290.545797149484</v>
+        <v>1827.600863529802</v>
       </c>
       <c r="C519" t="n">
-        <v>2290545797.149484</v>
+        <v>1827600863.529802</v>
       </c>
     </row>
     <row r="520">
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="B520" t="n">
-        <v>2292.86609738543</v>
+        <v>1828.731319151015</v>
       </c>
       <c r="C520" t="n">
-        <v>2292866097.38543</v>
+        <v>1828731319.151015</v>
       </c>
     </row>
     <row r="521">
@@ -6164,10 +6164,10 @@
         <v>1.99</v>
       </c>
       <c r="B521" t="n">
-        <v>2295.177043212366</v>
+        <v>1829.856775071374</v>
       </c>
       <c r="C521" t="n">
-        <v>2295177043.212366</v>
+        <v>1829856775.071374</v>
       </c>
     </row>
     <row r="522">
@@ -6175,10 +6175,10 @@
         <v>2</v>
       </c>
       <c r="B522" t="n">
-        <v>2297.478719058784</v>
+        <v>1830.977278355508</v>
       </c>
       <c r="C522" t="n">
-        <v>2297478719.058784</v>
+        <v>1830977278.355508</v>
       </c>
     </row>
     <row r="523">
@@ -6186,10 +6186,10 @@
         <v>2.02</v>
       </c>
       <c r="B523" t="n">
-        <v>2302.054592649078</v>
+        <v>1833.203611908661</v>
       </c>
       <c r="C523" t="n">
-        <v>2302054592.649078</v>
+        <v>1833203611.908661</v>
       </c>
     </row>
     <row r="524">
@@ -6197,10 +6197,10 @@
         <v>2.04</v>
       </c>
       <c r="B524" t="n">
-        <v>2306.594370392253</v>
+        <v>1835.410683047582</v>
       </c>
       <c r="C524" t="n">
-        <v>2306594370.392252</v>
+        <v>1835410683.047582</v>
       </c>
     </row>
     <row r="525">
@@ -6208,10 +6208,10 @@
         <v>2.06</v>
       </c>
       <c r="B525" t="n">
-        <v>2311.098686692125</v>
+        <v>1837.598844806839</v>
       </c>
       <c r="C525" t="n">
-        <v>2311098686.692125</v>
+        <v>1837598844.806839</v>
       </c>
     </row>
     <row r="526">
@@ -6219,10 +6219,10 @@
         <v>2.08</v>
       </c>
       <c r="B526" t="n">
-        <v>2315.568158775646</v>
+        <v>1839.768440400875</v>
       </c>
       <c r="C526" t="n">
-        <v>2315568158.775646</v>
+        <v>1839768440.400875</v>
       </c>
     </row>
     <row r="527">
@@ -6230,10 +6230,10 @@
         <v>2.1</v>
       </c>
       <c r="B527" t="n">
-        <v>2320.00338731803</v>
+        <v>1841.919803588567</v>
       </c>
       <c r="C527" t="n">
-        <v>2320003387.31803</v>
+        <v>1841919803.588567</v>
       </c>
     </row>
     <row r="528">
@@ -6241,10 +6241,10 @@
         <v>2.12</v>
       </c>
       <c r="B528" t="n">
-        <v>2324.404957039425</v>
+        <v>1844.053259020919</v>
       </c>
       <c r="C528" t="n">
-        <v>2324404957.039425</v>
+        <v>1844053259.020919</v>
       </c>
     </row>
     <row r="529">
@@ -6252,10 +6252,10 @@
         <v>2.14</v>
       </c>
       <c r="B529" t="n">
-        <v>2328.773437274666</v>
+        <v>1846.16912257283</v>
       </c>
       <c r="C529" t="n">
-        <v>2328773437.274666</v>
+        <v>1846169122.57283</v>
       </c>
     </row>
     <row r="530">
@@ -6263,10 +6263,10 @@
         <v>2.16</v>
       </c>
       <c r="B530" t="n">
-        <v>2333.109382517563</v>
+        <v>1848.267701659792</v>
       </c>
       <c r="C530" t="n">
-        <v>2333109382.517562</v>
+        <v>1848267701.659791</v>
       </c>
     </row>
     <row r="531">
@@ -6274,10 +6274,10 @@
         <v>2.18</v>
       </c>
       <c r="B531" t="n">
-        <v>2337.413332941096</v>
+        <v>1850.349295540351</v>
       </c>
       <c r="C531" t="n">
-        <v>2337413332.941096</v>
+        <v>1850349295.540351</v>
       </c>
     </row>
     <row r="532">
@@ -6285,10 +6285,10 @@
         <v>2.2</v>
       </c>
       <c r="B532" t="n">
-        <v>2341.685814894791</v>
+        <v>1852.414195605095</v>
       </c>
       <c r="C532" t="n">
-        <v>2341685814.894791</v>
+        <v>1852414195.605095</v>
       </c>
     </row>
     <row r="533">
@@ -6296,10 +6296,10 @@
         <v>2.22</v>
       </c>
       <c r="B533" t="n">
-        <v>2345.927341380463</v>
+        <v>1854.462685652865</v>
       </c>
       <c r="C533" t="n">
-        <v>2345927341.380463</v>
+        <v>1854462685.652865</v>
       </c>
     </row>
     <row r="534">
@@ -6307,10 +6307,10 @@
         <v>2.24</v>
       </c>
       <c r="B534" t="n">
-        <v>2350.138412507474</v>
+        <v>1856.495042154891</v>
       </c>
       <c r="C534" t="n">
-        <v>2350138412.507474</v>
+        <v>1856495042.154891</v>
       </c>
     </row>
     <row r="535">
@@ -6318,10 +6318,10 @@
         <v>2.26</v>
       </c>
       <c r="B535" t="n">
-        <v>2354.319515928544</v>
+        <v>1858.511534507466</v>
       </c>
       <c r="C535" t="n">
-        <v>2354319515.928544</v>
+        <v>1858511534.507466</v>
       </c>
     </row>
     <row r="536">
@@ -6329,10 +6329,10 @@
         <v>2.28</v>
       </c>
       <c r="B536" t="n">
-        <v>2358.471127257118</v>
+        <v>1860.512425273757</v>
       </c>
       <c r="C536" t="n">
-        <v>2358471127.257118</v>
+        <v>1860512425.273757</v>
       </c>
     </row>
     <row r="537">
@@ -6340,10 +6340,10 @@
         <v>2.3</v>
       </c>
       <c r="B537" t="n">
-        <v>2362.593710467228</v>
+        <v>1862.497970415311</v>
       </c>
       <c r="C537" t="n">
-        <v>2362593710.467228</v>
+        <v>1862497970.415311</v>
       </c>
     </row>
     <row r="538">
@@ -6351,10 +6351,10 @@
         <v>2.32</v>
       </c>
       <c r="B538" t="n">
-        <v>2366.687718276722</v>
+        <v>1864.468419513779</v>
       </c>
       <c r="C538" t="n">
-        <v>2366687718.276722</v>
+        <v>1864468419.513779</v>
       </c>
     </row>
     <row r="539">
@@ -6362,10 +6362,10 @@
         <v>2.34</v>
       </c>
       <c r="B539" t="n">
-        <v>2370.753592514684</v>
+        <v>1866.424015983359</v>
       </c>
       <c r="C539" t="n">
-        <v>2370753592.514684</v>
+        <v>1866424015.983359</v>
       </c>
     </row>
     <row r="540">
@@ -6373,10 +6373,10 @@
         <v>2.36</v>
       </c>
       <c r="B540" t="n">
-        <v>2374.791764473848</v>
+        <v>1868.364997274404</v>
       </c>
       <c r="C540" t="n">
-        <v>2374791764.473848</v>
+        <v>1868364997.274405</v>
       </c>
     </row>
     <row r="541">
@@ -6384,10 +6384,10 @@
         <v>2.38</v>
       </c>
       <c r="B541" t="n">
-        <v>2378.802655248714</v>
+        <v>1870.291595068664</v>
       </c>
       <c r="C541" t="n">
-        <v>2378802655.248714</v>
+        <v>1870291595.068664</v>
       </c>
     </row>
     <row r="542">
@@ -6395,10 +6395,10 @@
         <v>2.4</v>
       </c>
       <c r="B542" t="n">
-        <v>2382.78667606008</v>
+        <v>1872.204035466537</v>
       </c>
       <c r="C542" t="n">
-        <v>2382786676.06008</v>
+        <v>1872204035.466537</v>
       </c>
     </row>
     <row r="543">
@@ -6406,10 +6406,10 @@
         <v>2.42</v>
       </c>
       <c r="B543" t="n">
-        <v>2386.744228566632</v>
+        <v>1874.102539166749</v>
       </c>
       <c r="C543" t="n">
-        <v>2386744228.566632</v>
+        <v>1874102539.166749</v>
       </c>
     </row>
     <row r="544">
@@ -6417,10 +6417,10 @@
         <v>2.44</v>
       </c>
       <c r="B544" t="n">
-        <v>2390.675705164222</v>
+        <v>1875.987321638817</v>
       </c>
       <c r="C544" t="n">
-        <v>2390675705.164222</v>
+        <v>1875987321.638817</v>
       </c>
     </row>
     <row r="545">
@@ -6428,10 +6428,10 @@
         <v>2.46</v>
       </c>
       <c r="B545" t="n">
-        <v>2394.581489273402</v>
+        <v>1877.858593288636</v>
       </c>
       <c r="C545" t="n">
-        <v>2394581489.273402</v>
+        <v>1877858593.288636</v>
       </c>
     </row>
     <row r="546">
@@ -6439,10 +6439,10 @@
         <v>2.48</v>
       </c>
       <c r="B546" t="n">
-        <v>2398.461955615786</v>
+        <v>1879.716559617531</v>
       </c>
       <c r="C546" t="n">
-        <v>2398461955.615786</v>
+        <v>1879716559.617531</v>
       </c>
     </row>
     <row r="547">
@@ -6450,10 +6450,10 @@
         <v>2.5</v>
       </c>
       <c r="B547" t="n">
-        <v>2402.317470479737</v>
+        <v>1881.56142137507</v>
       </c>
       <c r="C547" t="n">
-        <v>2402317470.479737</v>
+        <v>1881561421.375071</v>
       </c>
     </row>
     <row r="548">
@@ -6461,10 +6461,10 @@
         <v>2.52</v>
       </c>
       <c r="B548" t="n">
-        <v>2406.148391975896</v>
+        <v>1883.39337470594</v>
       </c>
       <c r="C548" t="n">
-        <v>2406148391.975896</v>
+        <v>1883393374.70594</v>
       </c>
     </row>
     <row r="549">
@@ -6472,10 +6472,10 @@
         <v>2.54</v>
       </c>
       <c r="B549" t="n">
-        <v>2409.955070283003</v>
+        <v>1885.212611291151</v>
       </c>
       <c r="C549" t="n">
-        <v>2409955070.283003</v>
+        <v>1885212611.291151</v>
       </c>
     </row>
     <row r="550">
@@ -6483,10 +6483,10 @@
         <v>2.56</v>
       </c>
       <c r="B550" t="n">
-        <v>2413.737847884459</v>
+        <v>1887.019318483844</v>
       </c>
       <c r="C550" t="n">
-        <v>2413737847.884459</v>
+        <v>1887019318.483844</v>
       </c>
     </row>
     <row r="551">
@@ -6494,10 +6494,10 @@
         <v>2.58</v>
       </c>
       <c r="B551" t="n">
-        <v>2417.49705979604</v>
+        <v>1888.81367943994</v>
       </c>
       <c r="C551" t="n">
-        <v>2417497059.79604</v>
+        <v>1888813679.439939</v>
       </c>
     </row>
     <row r="552">
@@ -6505,10 +6505,10 @@
         <v>2.6</v>
       </c>
       <c r="B552" t="n">
-        <v>2421.233033785177</v>
+        <v>1890.595873243857</v>
       </c>
       <c r="C552" t="n">
-        <v>2421233033.785177</v>
+        <v>1890595873.243857</v>
       </c>
     </row>
     <row r="553">
@@ -6516,10 +6516,10 @@
         <v>2.62</v>
       </c>
       <c r="B553" t="n">
-        <v>2424.946090582153</v>
+        <v>1892.366075029545</v>
       </c>
       <c r="C553" t="n">
-        <v>2424946090.582153</v>
+        <v>1892366075.029545</v>
       </c>
     </row>
     <row r="554">
@@ -6527,10 +6527,10 @@
         <v>2.64</v>
       </c>
       <c r="B554" t="n">
-        <v>2428.636544083593</v>
+        <v>1894.124456097007</v>
       </c>
       <c r="C554" t="n">
-        <v>2428636544.083593</v>
+        <v>1894124456.097007</v>
       </c>
     </row>
     <row r="555">
@@ -6538,10 +6538,10 @@
         <v>2.66</v>
       </c>
       <c r="B555" t="n">
-        <v>2432.304701548571</v>
+        <v>1895.871184024551</v>
       </c>
       <c r="C555" t="n">
-        <v>2432304701.548571</v>
+        <v>1895871184.024551</v>
       </c>
     </row>
     <row r="556">
@@ -6549,10 +6549,10 @@
         <v>2.68</v>
       </c>
       <c r="B556" t="n">
-        <v>2435.950863787673</v>
+        <v>1897.606422776925</v>
       </c>
       <c r="C556" t="n">
-        <v>2435950863.787673</v>
+        <v>1897606422.776925</v>
       </c>
     </row>
     <row r="557">
@@ -6560,10 +6560,10 @@
         <v>2.7</v>
       </c>
       <c r="B557" t="n">
-        <v>2439.575325345295</v>
+        <v>1899.330332809532</v>
       </c>
       <c r="C557" t="n">
-        <v>2439575325.345295</v>
+        <v>1899330332.809532</v>
       </c>
     </row>
     <row r="558">
@@ -6571,10 +6571,10 @@
         <v>2.72</v>
       </c>
       <c r="B558" t="n">
-        <v>2443.178374675486</v>
+        <v>1901.043071168897</v>
       </c>
       <c r="C558" t="n">
-        <v>2443178374.675486</v>
+        <v>1901043071.168897</v>
       </c>
     </row>
     <row r="559">
@@ -6582,10 +6582,10 @@
         <v>2.74</v>
       </c>
       <c r="B559" t="n">
-        <v>2446.760294311604</v>
+        <v>1902.744791589536</v>
       </c>
       <c r="C559" t="n">
-        <v>2446760294.311604</v>
+        <v>1902744791.589536</v>
       </c>
     </row>
     <row r="560">
@@ -6593,10 +6593,10 @@
         <v>2.76</v>
       </c>
       <c r="B560" t="n">
-        <v>2450.321361030044</v>
+        <v>1904.435644587394</v>
       </c>
       <c r="C560" t="n">
-        <v>2450321361.030045</v>
+        <v>1904435644.587394</v>
       </c>
     </row>
     <row r="561">
@@ -6604,10 +6604,10 @@
         <v>2.78</v>
       </c>
       <c r="B561" t="n">
-        <v>2453.86184600829</v>
+        <v>1906.115777549986</v>
       </c>
       <c r="C561" t="n">
-        <v>2453861846.00829</v>
+        <v>1906115777.549985</v>
       </c>
     </row>
     <row r="562">
@@ -6615,10 +6615,10 @@
         <v>2.8</v>
       </c>
       <c r="B562" t="n">
-        <v>2457.38201497752</v>
+        <v>1907.785334823387</v>
       </c>
       <c r="C562" t="n">
-        <v>2457382014.97752</v>
+        <v>1907785334.823387</v>
       </c>
     </row>
     <row r="563">
@@ -6626,10 +6626,10 @@
         <v>2.82</v>
       </c>
       <c r="B563" t="n">
-        <v>2460.882128370001</v>
+        <v>1909.444457796202</v>
       </c>
       <c r="C563" t="n">
-        <v>2460882128.370001</v>
+        <v>1909444457.796202</v>
       </c>
     </row>
     <row r="564">
@@ -6637,10 +6637,10 @@
         <v>2.84</v>
       </c>
       <c r="B564" t="n">
-        <v>2464.362441461478</v>
+        <v>1911.09328498064</v>
       </c>
       <c r="C564" t="n">
-        <v>2464362441.461478</v>
+        <v>1911093284.98064</v>
       </c>
     </row>
     <row r="565">
@@ -6648,10 +6648,10 @@
         <v>2.86</v>
       </c>
       <c r="B565" t="n">
-        <v>2467.823204508762</v>
+        <v>1912.731952090811</v>
       </c>
       <c r="C565" t="n">
-        <v>2467823204.508762</v>
+        <v>1912731952.090811</v>
       </c>
     </row>
     <row r="566">
@@ -6659,10 +6659,10 @@
         <v>2.88</v>
       </c>
       <c r="B566" t="n">
-        <v>2471.264662882718</v>
+        <v>1914.360592118361</v>
       </c>
       <c r="C566" t="n">
-        <v>2471264662.882718</v>
+        <v>1914360592.118361</v>
       </c>
     </row>
     <row r="567">
@@ -6670,10 +6670,10 @@
         <v>2.9</v>
       </c>
       <c r="B567" t="n">
-        <v>2474.687057196826</v>
+        <v>1915.979335405554</v>
       </c>
       <c r="C567" t="n">
-        <v>2474687057.196826</v>
+        <v>1915979335.405554</v>
       </c>
     </row>
     <row r="568">
@@ -6681,10 +6681,10 @@
         <v>2.92</v>
       </c>
       <c r="B568" t="n">
-        <v>2478.090623431504</v>
+        <v>1917.588309715902</v>
       </c>
       <c r="C568" t="n">
-        <v>2478090623.431504</v>
+        <v>1917588309.715902</v>
       </c>
     </row>
     <row r="569">
@@ -6692,10 +6692,10 @@
         <v>2.94</v>
       </c>
       <c r="B569" t="n">
-        <v>2481.475593054354</v>
+        <v>1919.187640302447</v>
       </c>
       <c r="C569" t="n">
-        <v>2481475593.054354</v>
+        <v>1919187640.302447</v>
       </c>
     </row>
     <row r="570">
@@ -6703,10 +6703,10 @@
         <v>2.96</v>
       </c>
       <c r="B570" t="n">
-        <v>2484.842193136488</v>
+        <v>1920.777449973774</v>
       </c>
       <c r="C570" t="n">
-        <v>2484842193.136488</v>
+        <v>1920777449.973774</v>
       </c>
     </row>
     <row r="571">
@@ -6714,10 +6714,10 @@
         <v>2.98</v>
       </c>
       <c r="B571" t="n">
-        <v>2488.190646465101</v>
+        <v>1922.357859157867</v>
       </c>
       <c r="C571" t="n">
-        <v>2488190646.465101</v>
+        <v>1922357859.157867</v>
       </c>
     </row>
     <row r="572">
@@ -6725,10 +6725,10 @@
         <v>3</v>
       </c>
       <c r="B572" t="n">
-        <v>2491.521171652416</v>
+        <v>1923.928985963875</v>
       </c>
       <c r="C572" t="n">
-        <v>2491521171.652416</v>
+        <v>1923928985.963875</v>
       </c>
     </row>
   </sheetData>
